--- a/lists/learn_list_study4_c5.xlsx
+++ b/lists/learn_list_study4_c5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gelliott/Documents/projects/delaylearn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gelliott/Documents/projects/delaylearn/feedback-delay-four/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AFAA57-8637-7146-82CD-90C25913ACD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB94F95B-6489-3441-A89D-0988B7FD0626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3740" yWindow="500" windowWidth="43380" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="58">
   <si>
     <t>pattern_stimuli</t>
   </si>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E25E4B-9AFA-2443-8C1F-D7B80241CF51}">
   <dimension ref="A1:AB115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1081,10 +1081,10 @@
     <col min="20" max="20" width="34.6640625" customWidth="1"/>
     <col min="21" max="21" width="46.83203125" customWidth="1"/>
     <col min="22" max="25" width="14.83203125" customWidth="1"/>
-    <col min="28" max="28" width="14.83203125" customWidth="1"/>
+    <col min="27" max="28" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1160,8 +1160,11 @@
       <c r="Y1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1240,8 +1243,9 @@
       <c r="Z2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1321,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1400,8 +1404,9 @@
       <c r="Z4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1480,8 +1485,9 @@
       <c r="Z5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1560,8 +1566,9 @@
       <c r="Z6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1640,8 +1647,9 @@
       <c r="Z7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1652,19 +1660,19 @@
         <v>7</v>
       </c>
       <c r="D8" t="str">
-        <f>IF(L8=0,T8,U8)</f>
+        <f t="shared" ref="D8:D39" si="0">IF(L8=0,T8,U8)</f>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(L8=0,U8,T8)</f>
+        <f t="shared" ref="E8:E39" si="1">IF(L8=0,U8,T8)</f>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F8" t="str">
-        <f>IF(AND(L8=0),"f",IF(AND(L8=1),"j",IF(AND(L8=0),"j","f")))</f>
+        <f t="shared" ref="F8:F39" si="2">IF(AND(L8=0),"f",IF(AND(L8=1),"j",IF(AND(L8=0),"j","f")))</f>
         <v>f</v>
       </c>
       <c r="G8" t="str">
-        <f>IF(AND(V8=1,L8=0),"f",IF(AND(V8=1,L8=1),"j",IF(AND(V8=0,L8=0),"j","f")))</f>
+        <f t="shared" ref="G8:G39" si="3">IF(AND(V8=1,L8=0),"f",IF(AND(V8=1,L8=1),"j",IF(AND(V8=0,L8=0),"j","f")))</f>
         <v>f</v>
       </c>
       <c r="H8">
@@ -1698,19 +1706,19 @@
         <v>2</v>
       </c>
       <c r="R8">
-        <f>IF(L8=0,P8,Q8)</f>
+        <f t="shared" ref="R8:R39" si="4">IF(L8=0,P8,Q8)</f>
         <v>16</v>
       </c>
       <c r="S8">
-        <f>IF(L8=0,Q8,P8)</f>
+        <f t="shared" ref="S8:S39" si="5">IF(L8=0,Q8,P8)</f>
         <v>2</v>
       </c>
       <c r="T8" t="str">
-        <f>CONCATENATE("images/choice_trial_",P8,".png")</f>
+        <f t="shared" ref="T8:T39" si="6">CONCATENATE("images/choice_trial_",P8,".png")</f>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U8" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q8,".png")</f>
+        <f t="shared" ref="U8:U39" si="7">CONCATENATE("images/choice_trial_",Q8,".png")</f>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V8">
@@ -1720,14 +1728,17 @@
         <v>8</v>
       </c>
       <c r="X8" t="str">
-        <f>IF(V8=1,"f","j")</f>
+        <f t="shared" ref="X8:X39" si="8">IF(V8=1,"f","j")</f>
         <v>f</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1738,19 +1749,19 @@
         <v>10</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(L9=0,T9,U9)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(L9=0,U9,T9)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F9" t="str">
-        <f>IF(AND(L9=0),"f",IF(AND(L9=1),"j",IF(AND(L9=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G9" t="str">
-        <f>IF(AND(V9=1,L9=0),"f",IF(AND(V9=1,L9=1),"j",IF(AND(V9=0,L9=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H9">
@@ -1784,19 +1795,19 @@
         <v>10</v>
       </c>
       <c r="R9">
-        <f>IF(L9=0,P9,Q9)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="S9">
-        <f>IF(L9=0,Q9,P9)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="T9" t="str">
-        <f>CONCATENATE("images/choice_trial_",P9,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U9" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q9,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V9">
@@ -1806,14 +1817,17 @@
         <v>8</v>
       </c>
       <c r="X9" t="str">
-        <f>IF(V9=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1824,19 +1838,19 @@
         <v>20</v>
       </c>
       <c r="D10" t="str">
-        <f>IF(L10=0,T10,U10)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(L10=0,U10,T10)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="F10" t="str">
-        <f>IF(AND(L10=0),"f",IF(AND(L10=1),"j",IF(AND(L10=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G10" t="str">
-        <f>IF(AND(V10=1,L10=0),"f",IF(AND(V10=1,L10=1),"j",IF(AND(V10=0,L10=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H10">
@@ -1870,19 +1884,19 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <f>IF(L10=0,P10,Q10)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="S10">
-        <f>IF(L10=0,Q10,P10)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="T10" t="str">
-        <f>CONCATENATE("images/choice_trial_",P10,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U10" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q10,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V10">
@@ -1892,14 +1906,17 @@
         <v>8</v>
       </c>
       <c r="X10" t="str">
-        <f>IF(V10=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1910,19 +1927,19 @@
         <v>12</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(L11=0,T11,U11)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E11" t="str">
-        <f>IF(L11=0,U11,T11)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F11" t="str">
-        <f>IF(AND(L11=0),"f",IF(AND(L11=1),"j",IF(AND(L11=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G11" t="str">
-        <f>IF(AND(V11=1,L11=0),"f",IF(AND(V11=1,L11=1),"j",IF(AND(V11=0,L11=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H11">
@@ -1956,19 +1973,19 @@
         <v>13</v>
       </c>
       <c r="R11">
-        <f>IF(L11=0,P11,Q11)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="S11">
-        <f>IF(L11=0,Q11,P11)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="T11" t="str">
-        <f>CONCATENATE("images/choice_trial_",P11,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U11" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q11,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V11">
@@ -1978,14 +1995,17 @@
         <v>8</v>
       </c>
       <c r="X11" t="str">
-        <f>IF(V11=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1996,19 +2016,19 @@
         <v>14</v>
       </c>
       <c r="D12" t="str">
-        <f>IF(L12=0,T12,U12)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E12" t="str">
-        <f>IF(L12=0,U12,T12)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F12" t="str">
-        <f>IF(AND(L12=0),"f",IF(AND(L12=1),"j",IF(AND(L12=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G12" t="str">
-        <f>IF(AND(V12=1,L12=0),"f",IF(AND(V12=1,L12=1),"j",IF(AND(V12=0,L12=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H12">
@@ -2042,19 +2062,19 @@
         <v>9</v>
       </c>
       <c r="R12">
-        <f>IF(L12=0,P12,Q12)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="S12">
-        <f>IF(L12=0,Q12,P12)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="T12" t="str">
-        <f>CONCATENATE("images/choice_trial_",P12,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U12" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q12,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V12">
@@ -2064,14 +2084,17 @@
         <v>8</v>
       </c>
       <c r="X12" t="str">
-        <f>IF(V12=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2082,19 +2105,19 @@
         <v>22</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(L13=0,T13,U13)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(L13=0,U13,T13)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F13" t="str">
-        <f>IF(AND(L13=0),"f",IF(AND(L13=1),"j",IF(AND(L13=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G13" t="str">
-        <f>IF(AND(V13=1,L13=0),"f",IF(AND(V13=1,L13=1),"j",IF(AND(V13=0,L13=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H13">
@@ -2128,19 +2151,19 @@
         <v>15</v>
       </c>
       <c r="R13">
-        <f>IF(L13=0,P13,Q13)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="S13">
-        <f>IF(L13=0,Q13,P13)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="T13" t="str">
-        <f>CONCATENATE("images/choice_trial_",P13,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U13" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q13,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V13">
@@ -2150,14 +2173,17 @@
         <v>8</v>
       </c>
       <c r="X13" t="str">
-        <f>IF(V13=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2168,19 +2194,19 @@
         <v>7</v>
       </c>
       <c r="D14" t="str">
-        <f>IF(L14=0,T14,U14)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(L14=0,U14,T14)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="F14" t="str">
-        <f>IF(AND(L14=0),"f",IF(AND(L14=1),"j",IF(AND(L14=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G14" t="str">
-        <f>IF(AND(V14=1,L14=0),"f",IF(AND(V14=1,L14=1),"j",IF(AND(V14=0,L14=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H14">
@@ -2214,19 +2240,19 @@
         <v>2</v>
       </c>
       <c r="R14">
-        <f>IF(L14=0,P14,Q14)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S14">
-        <f>IF(L14=0,Q14,P14)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="T14" t="str">
-        <f>CONCATENATE("images/choice_trial_",P14,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U14" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q14,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V14">
@@ -2236,14 +2262,17 @@
         <v>8</v>
       </c>
       <c r="X14" t="str">
-        <f>IF(V14=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2254,19 +2283,19 @@
         <v>12</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(L15=0,T15,U15)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(L15=0,U15,T15)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F15" t="str">
-        <f>IF(AND(L15=0),"f",IF(AND(L15=1),"j",IF(AND(L15=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G15" t="str">
-        <f>IF(AND(V15=1,L15=0),"f",IF(AND(V15=1,L15=1),"j",IF(AND(V15=0,L15=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H15">
@@ -2300,19 +2329,19 @@
         <v>13</v>
       </c>
       <c r="R15">
-        <f>IF(L15=0,P15,Q15)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="S15">
-        <f>IF(L15=0,Q15,P15)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="T15" t="str">
-        <f>CONCATENATE("images/choice_trial_",P15,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U15" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q15,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V15">
@@ -2322,14 +2351,17 @@
         <v>8</v>
       </c>
       <c r="X15" t="str">
-        <f>IF(V15=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2340,19 +2372,19 @@
         <v>14</v>
       </c>
       <c r="D16" t="str">
-        <f>IF(L16=0,T16,U16)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(L16=0,U16,T16)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F16" t="str">
-        <f>IF(AND(L16=0),"f",IF(AND(L16=1),"j",IF(AND(L16=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G16" t="str">
-        <f>IF(AND(V16=1,L16=0),"f",IF(AND(V16=1,L16=1),"j",IF(AND(V16=0,L16=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H16">
@@ -2386,19 +2418,19 @@
         <v>9</v>
       </c>
       <c r="R16">
-        <f>IF(L16=0,P16,Q16)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="S16">
-        <f>IF(L16=0,Q16,P16)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="T16" t="str">
-        <f>CONCATENATE("images/choice_trial_",P16,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U16" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q16,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V16">
@@ -2408,14 +2440,17 @@
         <v>8</v>
       </c>
       <c r="X16" t="str">
-        <f>IF(V16=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2426,19 +2461,19 @@
         <v>20</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(L17=0,T17,U17)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(L17=0,U17,T17)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F17" t="str">
-        <f>IF(AND(L17=0),"f",IF(AND(L17=1),"j",IF(AND(L17=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G17" t="str">
-        <f>IF(AND(V17=1,L17=0),"f",IF(AND(V17=1,L17=1),"j",IF(AND(V17=0,L17=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H17">
@@ -2472,19 +2507,19 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <f>IF(L17=0,P17,Q17)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="S17">
-        <f>IF(L17=0,Q17,P17)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="T17" t="str">
-        <f>CONCATENATE("images/choice_trial_",P17,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U17" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q17,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V17">
@@ -2494,14 +2529,17 @@
         <v>8</v>
       </c>
       <c r="X17" t="str">
-        <f>IF(V17=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2512,19 +2550,19 @@
         <v>10</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(L18=0,T18,U18)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E18" t="str">
-        <f>IF(L18=0,U18,T18)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F18" t="str">
-        <f>IF(AND(L18=0),"f",IF(AND(L18=1),"j",IF(AND(L18=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G18" t="str">
-        <f>IF(AND(V18=1,L18=0),"f",IF(AND(V18=1,L18=1),"j",IF(AND(V18=0,L18=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H18">
@@ -2558,19 +2596,19 @@
         <v>10</v>
       </c>
       <c r="R18">
-        <f>IF(L18=0,P18,Q18)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S18">
-        <f>IF(L18=0,Q18,P18)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="T18" t="str">
-        <f>CONCATENATE("images/choice_trial_",P18,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U18" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q18,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V18">
@@ -2580,14 +2618,17 @@
         <v>8</v>
       </c>
       <c r="X18" t="str">
-        <f>IF(V18=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2598,19 +2639,19 @@
         <v>22</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(L19=0,T19,U19)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(L19=0,U19,T19)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="F19" t="str">
-        <f>IF(AND(L19=0),"f",IF(AND(L19=1),"j",IF(AND(L19=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G19" t="str">
-        <f>IF(AND(V19=1,L19=0),"f",IF(AND(V19=1,L19=1),"j",IF(AND(V19=0,L19=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H19">
@@ -2644,19 +2685,19 @@
         <v>15</v>
       </c>
       <c r="R19">
-        <f>IF(L19=0,P19,Q19)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="S19">
-        <f>IF(L19=0,Q19,P19)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="T19" t="str">
-        <f>CONCATENATE("images/choice_trial_",P19,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U19" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q19,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V19">
@@ -2666,14 +2707,17 @@
         <v>8</v>
       </c>
       <c r="X19" t="str">
-        <f>IF(V19=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2684,19 +2728,19 @@
         <v>14</v>
       </c>
       <c r="D20" t="str">
-        <f>IF(L20=0,T20,U20)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(L20=0,U20,T20)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F20" t="str">
-        <f>IF(AND(L20=0),"f",IF(AND(L20=1),"j",IF(AND(L20=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G20" t="str">
-        <f>IF(AND(V20=1,L20=0),"f",IF(AND(V20=1,L20=1),"j",IF(AND(V20=0,L20=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H20">
@@ -2730,19 +2774,19 @@
         <v>9</v>
       </c>
       <c r="R20">
-        <f>IF(L20=0,P20,Q20)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="S20">
-        <f>IF(L20=0,Q20,P20)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="T20" t="str">
-        <f>CONCATENATE("images/choice_trial_",P20,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U20" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q20,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V20">
@@ -2752,14 +2796,17 @@
         <v>8</v>
       </c>
       <c r="X20" t="str">
-        <f>IF(V20=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2770,19 +2817,19 @@
         <v>20</v>
       </c>
       <c r="D21" t="str">
-        <f>IF(L21=0,T21,U21)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(L21=0,U21,T21)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="F21" t="str">
-        <f>IF(AND(L21=0),"f",IF(AND(L21=1),"j",IF(AND(L21=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G21" t="str">
-        <f>IF(AND(V21=1,L21=0),"f",IF(AND(V21=1,L21=1),"j",IF(AND(V21=0,L21=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H21">
@@ -2816,19 +2863,19 @@
         <v>4</v>
       </c>
       <c r="R21">
-        <f>IF(L21=0,P21,Q21)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="S21">
-        <f>IF(L21=0,Q21,P21)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="T21" t="str">
-        <f>CONCATENATE("images/choice_trial_",P21,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U21" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q21,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V21">
@@ -2838,14 +2885,17 @@
         <v>8</v>
       </c>
       <c r="X21" t="str">
-        <f>IF(V21=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2856,19 +2906,19 @@
         <v>10</v>
       </c>
       <c r="D22" t="str">
-        <f>IF(L22=0,T22,U22)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E22" t="str">
-        <f>IF(L22=0,U22,T22)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F22" t="str">
-        <f>IF(AND(L22=0),"f",IF(AND(L22=1),"j",IF(AND(L22=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G22" t="str">
-        <f>IF(AND(V22=1,L22=0),"f",IF(AND(V22=1,L22=1),"j",IF(AND(V22=0,L22=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H22">
@@ -2902,19 +2952,19 @@
         <v>10</v>
       </c>
       <c r="R22">
-        <f>IF(L22=0,P22,Q22)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="S22">
-        <f>IF(L22=0,Q22,P22)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="T22" t="str">
-        <f>CONCATENATE("images/choice_trial_",P22,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U22" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q22,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V22">
@@ -2924,14 +2974,17 @@
         <v>8</v>
       </c>
       <c r="X22" t="str">
-        <f>IF(V22=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2942,19 +2995,19 @@
         <v>22</v>
       </c>
       <c r="D23" t="str">
-        <f>IF(L23=0,T23,U23)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(L23=0,U23,T23)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F23" t="str">
-        <f>IF(AND(L23=0),"f",IF(AND(L23=1),"j",IF(AND(L23=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G23" t="str">
-        <f>IF(AND(V23=1,L23=0),"f",IF(AND(V23=1,L23=1),"j",IF(AND(V23=0,L23=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H23">
@@ -2988,19 +3041,19 @@
         <v>15</v>
       </c>
       <c r="R23">
-        <f>IF(L23=0,P23,Q23)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="S23">
-        <f>IF(L23=0,Q23,P23)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="T23" t="str">
-        <f>CONCATENATE("images/choice_trial_",P23,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U23" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q23,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V23">
@@ -3010,14 +3063,17 @@
         <v>8</v>
       </c>
       <c r="X23" t="str">
-        <f>IF(V23=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3028,19 +3084,19 @@
         <v>7</v>
       </c>
       <c r="D24" t="str">
-        <f>IF(L24=0,T24,U24)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(L24=0,U24,T24)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="F24" t="str">
-        <f>IF(AND(L24=0),"f",IF(AND(L24=1),"j",IF(AND(L24=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G24" t="str">
-        <f>IF(AND(V24=1,L24=0),"f",IF(AND(V24=1,L24=1),"j",IF(AND(V24=0,L24=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H24">
@@ -3074,19 +3130,19 @@
         <v>2</v>
       </c>
       <c r="R24">
-        <f>IF(L24=0,P24,Q24)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S24">
-        <f>IF(L24=0,Q24,P24)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="T24" t="str">
-        <f>CONCATENATE("images/choice_trial_",P24,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U24" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q24,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V24">
@@ -3096,14 +3152,17 @@
         <v>8</v>
       </c>
       <c r="X24" t="str">
-        <f>IF(V24=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3114,19 +3173,19 @@
         <v>12</v>
       </c>
       <c r="D25" t="str">
-        <f>IF(L25=0,T25,U25)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E25" t="str">
-        <f>IF(L25=0,U25,T25)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F25" t="str">
-        <f>IF(AND(L25=0),"f",IF(AND(L25=1),"j",IF(AND(L25=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G25" t="str">
-        <f>IF(AND(V25=1,L25=0),"f",IF(AND(V25=1,L25=1),"j",IF(AND(V25=0,L25=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H25">
@@ -3160,19 +3219,19 @@
         <v>13</v>
       </c>
       <c r="R25">
-        <f>IF(L25=0,P25,Q25)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="S25">
-        <f>IF(L25=0,Q25,P25)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="T25" t="str">
-        <f>CONCATENATE("images/choice_trial_",P25,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U25" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q25,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V25">
@@ -3182,14 +3241,17 @@
         <v>8</v>
       </c>
       <c r="X25" t="str">
-        <f>IF(V25=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3200,19 +3262,19 @@
         <v>10</v>
       </c>
       <c r="D26" t="str">
-        <f>IF(L26=0,T26,U26)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(L26=0,U26,T26)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F26" t="str">
-        <f>IF(AND(L26=0),"f",IF(AND(L26=1),"j",IF(AND(L26=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G26" t="str">
-        <f>IF(AND(V26=1,L26=0),"f",IF(AND(V26=1,L26=1),"j",IF(AND(V26=0,L26=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H26">
@@ -3246,19 +3308,19 @@
         <v>10</v>
       </c>
       <c r="R26">
-        <f>IF(L26=0,P26,Q26)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="S26">
-        <f>IF(L26=0,Q26,P26)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="T26" t="str">
-        <f>CONCATENATE("images/choice_trial_",P26,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U26" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q26,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V26">
@@ -3268,14 +3330,17 @@
         <v>8</v>
       </c>
       <c r="X26" t="str">
-        <f>IF(V26=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3286,19 +3351,19 @@
         <v>22</v>
       </c>
       <c r="D27" t="str">
-        <f>IF(L27=0,T27,U27)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E27" t="str">
-        <f>IF(L27=0,U27,T27)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="F27" t="str">
-        <f>IF(AND(L27=0),"f",IF(AND(L27=1),"j",IF(AND(L27=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G27" t="str">
-        <f>IF(AND(V27=1,L27=0),"f",IF(AND(V27=1,L27=1),"j",IF(AND(V27=0,L27=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H27">
@@ -3332,19 +3397,19 @@
         <v>15</v>
       </c>
       <c r="R27">
-        <f>IF(L27=0,P27,Q27)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="S27">
-        <f>IF(L27=0,Q27,P27)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="T27" t="str">
-        <f>CONCATENATE("images/choice_trial_",P27,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U27" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q27,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V27">
@@ -3354,14 +3419,17 @@
         <v>8</v>
       </c>
       <c r="X27" t="str">
-        <f>IF(V27=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3372,19 +3440,19 @@
         <v>14</v>
       </c>
       <c r="D28" t="str">
-        <f>IF(L28=0,T28,U28)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E28" t="str">
-        <f>IF(L28=0,U28,T28)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F28" t="str">
-        <f>IF(AND(L28=0),"f",IF(AND(L28=1),"j",IF(AND(L28=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G28" t="str">
-        <f>IF(AND(V28=1,L28=0),"f",IF(AND(V28=1,L28=1),"j",IF(AND(V28=0,L28=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H28">
@@ -3418,19 +3486,19 @@
         <v>9</v>
       </c>
       <c r="R28">
-        <f>IF(L28=0,P28,Q28)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="S28">
-        <f>IF(L28=0,Q28,P28)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="T28" t="str">
-        <f>CONCATENATE("images/choice_trial_",P28,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U28" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q28,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V28">
@@ -3440,14 +3508,17 @@
         <v>8</v>
       </c>
       <c r="X28" t="str">
-        <f>IF(V28=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3458,19 +3529,19 @@
         <v>12</v>
       </c>
       <c r="D29" t="str">
-        <f>IF(L29=0,T29,U29)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E29" t="str">
-        <f>IF(L29=0,U29,T29)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F29" t="str">
-        <f>IF(AND(L29=0),"f",IF(AND(L29=1),"j",IF(AND(L29=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G29" t="str">
-        <f>IF(AND(V29=1,L29=0),"f",IF(AND(V29=1,L29=1),"j",IF(AND(V29=0,L29=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H29">
@@ -3504,19 +3575,19 @@
         <v>13</v>
       </c>
       <c r="R29">
-        <f>IF(L29=0,P29,Q29)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="S29">
-        <f>IF(L29=0,Q29,P29)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="T29" t="str">
-        <f>CONCATENATE("images/choice_trial_",P29,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U29" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q29,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V29">
@@ -3526,14 +3597,17 @@
         <v>8</v>
       </c>
       <c r="X29" t="str">
-        <f>IF(V29=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3544,19 +3618,19 @@
         <v>20</v>
       </c>
       <c r="D30" t="str">
-        <f>IF(L30=0,T30,U30)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(L30=0,U30,T30)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F30" t="str">
-        <f>IF(AND(L30=0),"f",IF(AND(L30=1),"j",IF(AND(L30=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G30" t="str">
-        <f>IF(AND(V30=1,L30=0),"f",IF(AND(V30=1,L30=1),"j",IF(AND(V30=0,L30=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H30">
@@ -3590,19 +3664,19 @@
         <v>4</v>
       </c>
       <c r="R30">
-        <f>IF(L30=0,P30,Q30)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="S30">
-        <f>IF(L30=0,Q30,P30)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="T30" t="str">
-        <f>CONCATENATE("images/choice_trial_",P30,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U30" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q30,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V30">
@@ -3612,14 +3686,17 @@
         <v>8</v>
       </c>
       <c r="X30" t="str">
-        <f>IF(V30=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3630,19 +3707,19 @@
         <v>7</v>
       </c>
       <c r="D31" t="str">
-        <f>IF(L31=0,T31,U31)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(L31=0,U31,T31)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="F31" t="str">
-        <f>IF(AND(L31=0),"f",IF(AND(L31=1),"j",IF(AND(L31=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G31" t="str">
-        <f>IF(AND(V31=1,L31=0),"f",IF(AND(V31=1,L31=1),"j",IF(AND(V31=0,L31=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H31">
@@ -3676,19 +3753,19 @@
         <v>2</v>
       </c>
       <c r="R31">
-        <f>IF(L31=0,P31,Q31)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S31">
-        <f>IF(L31=0,Q31,P31)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="T31" t="str">
-        <f>CONCATENATE("images/choice_trial_",P31,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U31" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q31,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V31">
@@ -3698,14 +3775,17 @@
         <v>8</v>
       </c>
       <c r="X31" t="str">
-        <f>IF(V31=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3716,19 +3796,19 @@
         <v>22</v>
       </c>
       <c r="D32" t="str">
-        <f>IF(L32=0,T32,U32)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(L32=0,U32,T32)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="F32" t="str">
-        <f>IF(AND(L32=0),"f",IF(AND(L32=1),"j",IF(AND(L32=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G32" t="str">
-        <f>IF(AND(V32=1,L32=0),"f",IF(AND(V32=1,L32=1),"j",IF(AND(V32=0,L32=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H32">
@@ -3762,19 +3842,19 @@
         <v>15</v>
       </c>
       <c r="R32">
-        <f>IF(L32=0,P32,Q32)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="S32">
-        <f>IF(L32=0,Q32,P32)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="T32" t="str">
-        <f>CONCATENATE("images/choice_trial_",P32,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U32" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q32,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V32">
@@ -3784,14 +3864,17 @@
         <v>8</v>
       </c>
       <c r="X32" t="str">
-        <f>IF(V32=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3802,19 +3885,19 @@
         <v>14</v>
       </c>
       <c r="D33" t="str">
-        <f>IF(L33=0,T33,U33)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E33" t="str">
-        <f>IF(L33=0,U33,T33)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F33" t="str">
-        <f>IF(AND(L33=0),"f",IF(AND(L33=1),"j",IF(AND(L33=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G33" t="str">
-        <f>IF(AND(V33=1,L33=0),"f",IF(AND(V33=1,L33=1),"j",IF(AND(V33=0,L33=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H33">
@@ -3848,19 +3931,19 @@
         <v>9</v>
       </c>
       <c r="R33">
-        <f>IF(L33=0,P33,Q33)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="S33">
-        <f>IF(L33=0,Q33,P33)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="T33" t="str">
-        <f>CONCATENATE("images/choice_trial_",P33,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U33" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q33,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V33">
@@ -3870,14 +3953,17 @@
         <v>8</v>
       </c>
       <c r="X33" t="str">
-        <f>IF(V33=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3888,19 +3974,19 @@
         <v>12</v>
       </c>
       <c r="D34" t="str">
-        <f>IF(L34=0,T34,U34)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(L34=0,U34,T34)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F34" t="str">
-        <f>IF(AND(L34=0),"f",IF(AND(L34=1),"j",IF(AND(L34=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G34" t="str">
-        <f>IF(AND(V34=1,L34=0),"f",IF(AND(V34=1,L34=1),"j",IF(AND(V34=0,L34=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H34">
@@ -3934,19 +4020,19 @@
         <v>13</v>
       </c>
       <c r="R34">
-        <f>IF(L34=0,P34,Q34)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="S34">
-        <f>IF(L34=0,Q34,P34)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="T34" t="str">
-        <f>CONCATENATE("images/choice_trial_",P34,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U34" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q34,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V34">
@@ -3956,14 +4042,17 @@
         <v>8</v>
       </c>
       <c r="X34" t="str">
-        <f>IF(V34=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3974,19 +4063,19 @@
         <v>7</v>
       </c>
       <c r="D35" t="str">
-        <f>IF(L35=0,T35,U35)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(L35=0,U35,T35)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="F35" t="str">
-        <f>IF(AND(L35=0),"f",IF(AND(L35=1),"j",IF(AND(L35=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G35" t="str">
-        <f>IF(AND(V35=1,L35=0),"f",IF(AND(V35=1,L35=1),"j",IF(AND(V35=0,L35=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H35">
@@ -4020,19 +4109,19 @@
         <v>2</v>
       </c>
       <c r="R35">
-        <f>IF(L35=0,P35,Q35)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S35">
-        <f>IF(L35=0,Q35,P35)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="T35" t="str">
-        <f>CONCATENATE("images/choice_trial_",P35,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U35" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q35,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V35">
@@ -4042,14 +4131,17 @@
         <v>8</v>
       </c>
       <c r="X35" t="str">
-        <f>IF(V35=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4060,19 +4152,19 @@
         <v>20</v>
       </c>
       <c r="D36" t="str">
-        <f>IF(L36=0,T36,U36)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(L36=0,U36,T36)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F36" t="str">
-        <f>IF(AND(L36=0),"f",IF(AND(L36=1),"j",IF(AND(L36=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G36" t="str">
-        <f>IF(AND(V36=1,L36=0),"f",IF(AND(V36=1,L36=1),"j",IF(AND(V36=0,L36=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H36">
@@ -4106,19 +4198,19 @@
         <v>4</v>
       </c>
       <c r="R36">
-        <f>IF(L36=0,P36,Q36)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="S36">
-        <f>IF(L36=0,Q36,P36)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="T36" t="str">
-        <f>CONCATENATE("images/choice_trial_",P36,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U36" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q36,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V36">
@@ -4128,14 +4220,17 @@
         <v>8</v>
       </c>
       <c r="X36" t="str">
-        <f>IF(V36=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4146,19 +4241,19 @@
         <v>10</v>
       </c>
       <c r="D37" t="str">
-        <f>IF(L37=0,T37,U37)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(L37=0,U37,T37)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F37" t="str">
-        <f>IF(AND(L37=0),"f",IF(AND(L37=1),"j",IF(AND(L37=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G37" t="str">
-        <f>IF(AND(V37=1,L37=0),"f",IF(AND(V37=1,L37=1),"j",IF(AND(V37=0,L37=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H37">
@@ -4192,19 +4287,19 @@
         <v>10</v>
       </c>
       <c r="R37">
-        <f>IF(L37=0,P37,Q37)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S37">
-        <f>IF(L37=0,Q37,P37)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="T37" t="str">
-        <f>CONCATENATE("images/choice_trial_",P37,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U37" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q37,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V37">
@@ -4214,14 +4309,17 @@
         <v>8</v>
       </c>
       <c r="X37" t="str">
-        <f>IF(V37=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4232,19 +4330,19 @@
         <v>22</v>
       </c>
       <c r="D38" t="str">
-        <f>IF(L38=0,T38,U38)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(L38=0,U38,T38)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="F38" t="str">
-        <f>IF(AND(L38=0),"f",IF(AND(L38=1),"j",IF(AND(L38=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G38" t="str">
-        <f>IF(AND(V38=1,L38=0),"f",IF(AND(V38=1,L38=1),"j",IF(AND(V38=0,L38=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="H38">
@@ -4278,19 +4376,19 @@
         <v>15</v>
       </c>
       <c r="R38">
-        <f>IF(L38=0,P38,Q38)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="S38">
-        <f>IF(L38=0,Q38,P38)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="T38" t="str">
-        <f>CONCATENATE("images/choice_trial_",P38,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U38" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q38,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V38">
@@ -4300,14 +4398,17 @@
         <v>8</v>
       </c>
       <c r="X38" t="str">
-        <f>IF(V38=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>j</v>
       </c>
       <c r="Y38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4318,19 +4419,19 @@
         <v>7</v>
       </c>
       <c r="D39" t="str">
-        <f>IF(L39=0,T39,U39)</f>
+        <f t="shared" si="0"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="E39" t="str">
-        <f>IF(L39=0,U39,T39)</f>
+        <f t="shared" si="1"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F39" t="str">
-        <f>IF(AND(L39=0),"f",IF(AND(L39=1),"j",IF(AND(L39=0),"j","f")))</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="G39" t="str">
-        <f>IF(AND(V39=1,L39=0),"f",IF(AND(V39=1,L39=1),"j",IF(AND(V39=0,L39=0),"j","f")))</f>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="H39">
@@ -4364,19 +4465,19 @@
         <v>2</v>
       </c>
       <c r="R39">
-        <f>IF(L39=0,P39,Q39)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="S39">
-        <f>IF(L39=0,Q39,P39)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="T39" t="str">
-        <f>CONCATENATE("images/choice_trial_",P39,".png")</f>
+        <f t="shared" si="6"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U39" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q39,".png")</f>
+        <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V39">
@@ -4386,14 +4487,17 @@
         <v>8</v>
       </c>
       <c r="X39" t="str">
-        <f>IF(V39=1,"f","j")</f>
+        <f t="shared" si="8"/>
         <v>f</v>
       </c>
       <c r="Y39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4404,19 +4508,19 @@
         <v>10</v>
       </c>
       <c r="D40" t="str">
-        <f>IF(L40=0,T40,U40)</f>
+        <f t="shared" ref="D40:D71" si="9">IF(L40=0,T40,U40)</f>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(L40=0,U40,T40)</f>
+        <f t="shared" ref="E40:E71" si="10">IF(L40=0,U40,T40)</f>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F40" t="str">
-        <f>IF(AND(L40=0),"f",IF(AND(L40=1),"j",IF(AND(L40=0),"j","f")))</f>
+        <f t="shared" ref="F40:F71" si="11">IF(AND(L40=0),"f",IF(AND(L40=1),"j",IF(AND(L40=0),"j","f")))</f>
         <v>j</v>
       </c>
       <c r="G40" t="str">
-        <f>IF(AND(V40=1,L40=0),"f",IF(AND(V40=1,L40=1),"j",IF(AND(V40=0,L40=0),"j","f")))</f>
+        <f t="shared" ref="G40:G71" si="12">IF(AND(V40=1,L40=0),"f",IF(AND(V40=1,L40=1),"j",IF(AND(V40=0,L40=0),"j","f")))</f>
         <v>j</v>
       </c>
       <c r="H40">
@@ -4450,19 +4554,19 @@
         <v>10</v>
       </c>
       <c r="R40">
-        <f>IF(L40=0,P40,Q40)</f>
+        <f t="shared" ref="R40:R71" si="13">IF(L40=0,P40,Q40)</f>
         <v>10</v>
       </c>
       <c r="S40">
-        <f>IF(L40=0,Q40,P40)</f>
+        <f t="shared" ref="S40:S71" si="14">IF(L40=0,Q40,P40)</f>
         <v>8</v>
       </c>
       <c r="T40" t="str">
-        <f>CONCATENATE("images/choice_trial_",P40,".png")</f>
+        <f t="shared" ref="T40:T71" si="15">CONCATENATE("images/choice_trial_",P40,".png")</f>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U40" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q40,".png")</f>
+        <f t="shared" ref="U40:U71" si="16">CONCATENATE("images/choice_trial_",Q40,".png")</f>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V40">
@@ -4472,14 +4576,17 @@
         <v>8</v>
       </c>
       <c r="X40" t="str">
-        <f>IF(V40=1,"f","j")</f>
+        <f t="shared" ref="X40:X71" si="17">IF(V40=1,"f","j")</f>
         <v>f</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4490,19 +4597,19 @@
         <v>12</v>
       </c>
       <c r="D41" t="str">
-        <f>IF(L41=0,T41,U41)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(L41=0,U41,T41)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F41" t="str">
-        <f>IF(AND(L41=0),"f",IF(AND(L41=1),"j",IF(AND(L41=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G41" t="str">
-        <f>IF(AND(V41=1,L41=0),"f",IF(AND(V41=1,L41=1),"j",IF(AND(V41=0,L41=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H41">
@@ -4536,19 +4643,19 @@
         <v>13</v>
       </c>
       <c r="R41">
-        <f>IF(L41=0,P41,Q41)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="S41">
-        <f>IF(L41=0,Q41,P41)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T41" t="str">
-        <f>CONCATENATE("images/choice_trial_",P41,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U41" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q41,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V41">
@@ -4558,14 +4665,17 @@
         <v>8</v>
       </c>
       <c r="X41" t="str">
-        <f>IF(V41=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4576,19 +4686,19 @@
         <v>20</v>
       </c>
       <c r="D42" t="str">
-        <f>IF(L42=0,T42,U42)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(L42=0,U42,T42)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="F42" t="str">
-        <f>IF(AND(L42=0),"f",IF(AND(L42=1),"j",IF(AND(L42=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G42" t="str">
-        <f>IF(AND(V42=1,L42=0),"f",IF(AND(V42=1,L42=1),"j",IF(AND(V42=0,L42=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H42">
@@ -4622,19 +4732,19 @@
         <v>4</v>
       </c>
       <c r="R42">
-        <f>IF(L42=0,P42,Q42)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="S42">
-        <f>IF(L42=0,Q42,P42)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="T42" t="str">
-        <f>CONCATENATE("images/choice_trial_",P42,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U42" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q42,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V42">
@@ -4644,14 +4754,17 @@
         <v>8</v>
       </c>
       <c r="X42" t="str">
-        <f>IF(V42=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4662,19 +4775,19 @@
         <v>14</v>
       </c>
       <c r="D43" t="str">
-        <f>IF(L43=0,T43,U43)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(L43=0,U43,T43)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F43" t="str">
-        <f>IF(AND(L43=0),"f",IF(AND(L43=1),"j",IF(AND(L43=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G43" t="str">
-        <f>IF(AND(V43=1,L43=0),"f",IF(AND(V43=1,L43=1),"j",IF(AND(V43=0,L43=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H43">
@@ -4708,19 +4821,19 @@
         <v>9</v>
       </c>
       <c r="R43">
-        <f>IF(L43=0,P43,Q43)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="S43">
-        <f>IF(L43=0,Q43,P43)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T43" t="str">
-        <f>CONCATENATE("images/choice_trial_",P43,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U43" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q43,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V43">
@@ -4730,14 +4843,17 @@
         <v>8</v>
       </c>
       <c r="X43" t="str">
-        <f>IF(V43=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4748,19 +4864,19 @@
         <v>22</v>
       </c>
       <c r="D44" t="str">
-        <f>IF(L44=0,T44,U44)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(L44=0,U44,T44)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F44" t="str">
-        <f>IF(AND(L44=0),"f",IF(AND(L44=1),"j",IF(AND(L44=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G44" t="str">
-        <f>IF(AND(V44=1,L44=0),"f",IF(AND(V44=1,L44=1),"j",IF(AND(V44=0,L44=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H44">
@@ -4794,19 +4910,19 @@
         <v>15</v>
       </c>
       <c r="R44">
-        <f>IF(L44=0,P44,Q44)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="S44">
-        <f>IF(L44=0,Q44,P44)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="T44" t="str">
-        <f>CONCATENATE("images/choice_trial_",P44,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U44" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q44,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V44">
@@ -4816,14 +4932,17 @@
         <v>8</v>
       </c>
       <c r="X44" t="str">
-        <f>IF(V44=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4834,19 +4953,19 @@
         <v>10</v>
       </c>
       <c r="D45" t="str">
-        <f>IF(L45=0,T45,U45)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(L45=0,U45,T45)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F45" t="str">
-        <f>IF(AND(L45=0),"f",IF(AND(L45=1),"j",IF(AND(L45=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G45" t="str">
-        <f>IF(AND(V45=1,L45=0),"f",IF(AND(V45=1,L45=1),"j",IF(AND(V45=0,L45=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H45">
@@ -4880,19 +4999,19 @@
         <v>10</v>
       </c>
       <c r="R45">
-        <f>IF(L45=0,P45,Q45)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="S45">
-        <f>IF(L45=0,Q45,P45)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="T45" t="str">
-        <f>CONCATENATE("images/choice_trial_",P45,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U45" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q45,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V45">
@@ -4902,14 +5021,17 @@
         <v>8</v>
       </c>
       <c r="X45" t="str">
-        <f>IF(V45=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>j</v>
       </c>
       <c r="Y45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4920,19 +5042,19 @@
         <v>12</v>
       </c>
       <c r="D46" t="str">
-        <f>IF(L46=0,T46,U46)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(L46=0,U46,T46)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F46" t="str">
-        <f>IF(AND(L46=0),"f",IF(AND(L46=1),"j",IF(AND(L46=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G46" t="str">
-        <f>IF(AND(V46=1,L46=0),"f",IF(AND(V46=1,L46=1),"j",IF(AND(V46=0,L46=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H46">
@@ -4966,19 +5088,19 @@
         <v>13</v>
       </c>
       <c r="R46">
-        <f>IF(L46=0,P46,Q46)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S46">
-        <f>IF(L46=0,Q46,P46)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="T46" t="str">
-        <f>CONCATENATE("images/choice_trial_",P46,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U46" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q46,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V46">
@@ -4988,14 +5110,17 @@
         <v>8</v>
       </c>
       <c r="X46" t="str">
-        <f>IF(V46=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5006,19 +5131,19 @@
         <v>20</v>
       </c>
       <c r="D47" t="str">
-        <f>IF(L47=0,T47,U47)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(L47=0,U47,T47)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F47" t="str">
-        <f>IF(AND(L47=0),"f",IF(AND(L47=1),"j",IF(AND(L47=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G47" t="str">
-        <f>IF(AND(V47=1,L47=0),"f",IF(AND(V47=1,L47=1),"j",IF(AND(V47=0,L47=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H47">
@@ -5052,19 +5177,19 @@
         <v>4</v>
       </c>
       <c r="R47">
-        <f>IF(L47=0,P47,Q47)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S47">
-        <f>IF(L47=0,Q47,P47)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="T47" t="str">
-        <f>CONCATENATE("images/choice_trial_",P47,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U47" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q47,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V47">
@@ -5074,14 +5199,17 @@
         <v>8</v>
       </c>
       <c r="X47" t="str">
-        <f>IF(V47=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>j</v>
       </c>
       <c r="Y47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5092,19 +5220,19 @@
         <v>7</v>
       </c>
       <c r="D48" t="str">
-        <f>IF(L48=0,T48,U48)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(L48=0,U48,T48)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="F48" t="str">
-        <f>IF(AND(L48=0),"f",IF(AND(L48=1),"j",IF(AND(L48=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G48" t="str">
-        <f>IF(AND(V48=1,L48=0),"f",IF(AND(V48=1,L48=1),"j",IF(AND(V48=0,L48=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H48">
@@ -5138,19 +5266,19 @@
         <v>2</v>
       </c>
       <c r="R48">
-        <f>IF(L48=0,P48,Q48)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="S48">
-        <f>IF(L48=0,Q48,P48)</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="T48" t="str">
-        <f>CONCATENATE("images/choice_trial_",P48,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U48" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q48,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V48">
@@ -5160,14 +5288,17 @@
         <v>8</v>
       </c>
       <c r="X48" t="str">
-        <f>IF(V48=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5178,19 +5309,19 @@
         <v>14</v>
       </c>
       <c r="D49" t="str">
-        <f>IF(L49=0,T49,U49)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(L49=0,U49,T49)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F49" t="str">
-        <f>IF(AND(L49=0),"f",IF(AND(L49=1),"j",IF(AND(L49=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G49" t="str">
-        <f>IF(AND(V49=1,L49=0),"f",IF(AND(V49=1,L49=1),"j",IF(AND(V49=0,L49=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H49">
@@ -5224,19 +5355,19 @@
         <v>9</v>
       </c>
       <c r="R49">
-        <f>IF(L49=0,P49,Q49)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="S49">
-        <f>IF(L49=0,Q49,P49)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T49" t="str">
-        <f>CONCATENATE("images/choice_trial_",P49,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U49" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q49,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V49">
@@ -5246,14 +5377,17 @@
         <v>8</v>
       </c>
       <c r="X49" t="str">
-        <f>IF(V49=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5264,19 +5398,19 @@
         <v>14</v>
       </c>
       <c r="D50" t="str">
-        <f>IF(L50=0,T50,U50)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(L50=0,U50,T50)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F50" t="str">
-        <f>IF(AND(L50=0),"f",IF(AND(L50=1),"j",IF(AND(L50=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G50" t="str">
-        <f>IF(AND(V50=1,L50=0),"f",IF(AND(V50=1,L50=1),"j",IF(AND(V50=0,L50=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H50">
@@ -5310,19 +5444,19 @@
         <v>9</v>
       </c>
       <c r="R50">
-        <f>IF(L50=0,P50,Q50)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S50">
-        <f>IF(L50=0,Q50,P50)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="T50" t="str">
-        <f>CONCATENATE("images/choice_trial_",P50,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U50" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q50,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V50">
@@ -5332,14 +5466,17 @@
         <v>8</v>
       </c>
       <c r="X50" t="str">
-        <f>IF(V50=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5350,19 +5487,19 @@
         <v>20</v>
       </c>
       <c r="D51" t="str">
-        <f>IF(L51=0,T51,U51)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E51" t="str">
-        <f>IF(L51=0,U51,T51)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="F51" t="str">
-        <f>IF(AND(L51=0),"f",IF(AND(L51=1),"j",IF(AND(L51=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G51" t="str">
-        <f>IF(AND(V51=1,L51=0),"f",IF(AND(V51=1,L51=1),"j",IF(AND(V51=0,L51=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H51">
@@ -5396,19 +5533,19 @@
         <v>4</v>
       </c>
       <c r="R51">
-        <f>IF(L51=0,P51,Q51)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="S51">
-        <f>IF(L51=0,Q51,P51)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="T51" t="str">
-        <f>CONCATENATE("images/choice_trial_",P51,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U51" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q51,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V51">
@@ -5418,14 +5555,17 @@
         <v>8</v>
       </c>
       <c r="X51" t="str">
-        <f>IF(V51=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5436,19 +5576,19 @@
         <v>7</v>
       </c>
       <c r="D52" t="str">
-        <f>IF(L52=0,T52,U52)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="E52" t="str">
-        <f>IF(L52=0,U52,T52)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F52" t="str">
-        <f>IF(AND(L52=0),"f",IF(AND(L52=1),"j",IF(AND(L52=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G52" t="str">
-        <f>IF(AND(V52=1,L52=0),"f",IF(AND(V52=1,L52=1),"j",IF(AND(V52=0,L52=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H52">
@@ -5482,19 +5622,19 @@
         <v>2</v>
       </c>
       <c r="R52">
-        <f>IF(L52=0,P52,Q52)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="S52">
-        <f>IF(L52=0,Q52,P52)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="T52" t="str">
-        <f>CONCATENATE("images/choice_trial_",P52,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U52" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q52,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V52">
@@ -5504,14 +5644,17 @@
         <v>8</v>
       </c>
       <c r="X52" t="str">
-        <f>IF(V52=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5522,19 +5665,19 @@
         <v>12</v>
       </c>
       <c r="D53" t="str">
-        <f>IF(L53=0,T53,U53)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E53" t="str">
-        <f>IF(L53=0,U53,T53)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F53" t="str">
-        <f>IF(AND(L53=0),"f",IF(AND(L53=1),"j",IF(AND(L53=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G53" t="str">
-        <f>IF(AND(V53=1,L53=0),"f",IF(AND(V53=1,L53=1),"j",IF(AND(V53=0,L53=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H53">
@@ -5568,19 +5711,19 @@
         <v>13</v>
       </c>
       <c r="R53">
-        <f>IF(L53=0,P53,Q53)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="S53">
-        <f>IF(L53=0,Q53,P53)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T53" t="str">
-        <f>CONCATENATE("images/choice_trial_",P53,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U53" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q53,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V53">
@@ -5590,14 +5733,17 @@
         <v>8</v>
       </c>
       <c r="X53" t="str">
-        <f>IF(V53=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5608,19 +5754,19 @@
         <v>22</v>
       </c>
       <c r="D54" t="str">
-        <f>IF(L54=0,T54,U54)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E54" t="str">
-        <f>IF(L54=0,U54,T54)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="F54" t="str">
-        <f>IF(AND(L54=0),"f",IF(AND(L54=1),"j",IF(AND(L54=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G54" t="str">
-        <f>IF(AND(V54=1,L54=0),"f",IF(AND(V54=1,L54=1),"j",IF(AND(V54=0,L54=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H54">
@@ -5654,19 +5800,19 @@
         <v>15</v>
       </c>
       <c r="R54">
-        <f>IF(L54=0,P54,Q54)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="S54">
-        <f>IF(L54=0,Q54,P54)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="T54" t="str">
-        <f>CONCATENATE("images/choice_trial_",P54,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U54" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q54,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V54">
@@ -5676,14 +5822,17 @@
         <v>8</v>
       </c>
       <c r="X54" t="str">
-        <f>IF(V54=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>j</v>
       </c>
       <c r="Y54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5694,19 +5843,19 @@
         <v>10</v>
       </c>
       <c r="D55" t="str">
-        <f>IF(L55=0,T55,U55)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E55" t="str">
-        <f>IF(L55=0,U55,T55)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F55" t="str">
-        <f>IF(AND(L55=0),"f",IF(AND(L55=1),"j",IF(AND(L55=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G55" t="str">
-        <f>IF(AND(V55=1,L55=0),"f",IF(AND(V55=1,L55=1),"j",IF(AND(V55=0,L55=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H55">
@@ -5740,19 +5889,19 @@
         <v>10</v>
       </c>
       <c r="R55">
-        <f>IF(L55=0,P55,Q55)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="S55">
-        <f>IF(L55=0,Q55,P55)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="T55" t="str">
-        <f>CONCATENATE("images/choice_trial_",P55,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U55" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q55,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V55">
@@ -5762,14 +5911,17 @@
         <v>8</v>
       </c>
       <c r="X55" t="str">
-        <f>IF(V55=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5780,19 +5932,19 @@
         <v>7</v>
       </c>
       <c r="D56" t="str">
-        <f>IF(L56=0,T56,U56)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="E56" t="str">
-        <f>IF(L56=0,U56,T56)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F56" t="str">
-        <f>IF(AND(L56=0),"f",IF(AND(L56=1),"j",IF(AND(L56=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G56" t="str">
-        <f>IF(AND(V56=1,L56=0),"f",IF(AND(V56=1,L56=1),"j",IF(AND(V56=0,L56=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H56">
@@ -5826,19 +5978,19 @@
         <v>2</v>
       </c>
       <c r="R56">
-        <f>IF(L56=0,P56,Q56)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="S56">
-        <f>IF(L56=0,Q56,P56)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="T56" t="str">
-        <f>CONCATENATE("images/choice_trial_",P56,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U56" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q56,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V56">
@@ -5848,14 +6000,17 @@
         <v>8</v>
       </c>
       <c r="X56" t="str">
-        <f>IF(V56=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5866,19 +6021,19 @@
         <v>12</v>
       </c>
       <c r="D57" t="str">
-        <f>IF(L57=0,T57,U57)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E57" t="str">
-        <f>IF(L57=0,U57,T57)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F57" t="str">
-        <f>IF(AND(L57=0),"f",IF(AND(L57=1),"j",IF(AND(L57=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G57" t="str">
-        <f>IF(AND(V57=1,L57=0),"f",IF(AND(V57=1,L57=1),"j",IF(AND(V57=0,L57=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H57">
@@ -5912,19 +6067,19 @@
         <v>13</v>
       </c>
       <c r="R57">
-        <f>IF(L57=0,P57,Q57)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="S57">
-        <f>IF(L57=0,Q57,P57)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="T57" t="str">
-        <f>CONCATENATE("images/choice_trial_",P57,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U57" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q57,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V57">
@@ -5934,14 +6089,17 @@
         <v>8</v>
       </c>
       <c r="X57" t="str">
-        <f>IF(V57=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>j</v>
       </c>
       <c r="Y57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5952,19 +6110,19 @@
         <v>20</v>
       </c>
       <c r="D58" t="str">
-        <f>IF(L58=0,T58,U58)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="E58" t="str">
-        <f>IF(L58=0,U58,T58)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F58" t="str">
-        <f>IF(AND(L58=0),"f",IF(AND(L58=1),"j",IF(AND(L58=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G58" t="str">
-        <f>IF(AND(V58=1,L58=0),"f",IF(AND(V58=1,L58=1),"j",IF(AND(V58=0,L58=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H58">
@@ -5998,19 +6156,19 @@
         <v>4</v>
       </c>
       <c r="R58">
-        <f>IF(L58=0,P58,Q58)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S58">
-        <f>IF(L58=0,Q58,P58)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="T58" t="str">
-        <f>CONCATENATE("images/choice_trial_",P58,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U58" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q58,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V58">
@@ -6020,14 +6178,17 @@
         <v>8</v>
       </c>
       <c r="X58" t="str">
-        <f>IF(V58=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6038,19 +6199,19 @@
         <v>10</v>
       </c>
       <c r="D59" t="str">
-        <f>IF(L59=0,T59,U59)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E59" t="str">
-        <f>IF(L59=0,U59,T59)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F59" t="str">
-        <f>IF(AND(L59=0),"f",IF(AND(L59=1),"j",IF(AND(L59=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G59" t="str">
-        <f>IF(AND(V59=1,L59=0),"f",IF(AND(V59=1,L59=1),"j",IF(AND(V59=0,L59=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H59">
@@ -6084,19 +6245,19 @@
         <v>10</v>
       </c>
       <c r="R59">
-        <f>IF(L59=0,P59,Q59)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="S59">
-        <f>IF(L59=0,Q59,P59)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="T59" t="str">
-        <f>CONCATENATE("images/choice_trial_",P59,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U59" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q59,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V59">
@@ -6106,14 +6267,17 @@
         <v>8</v>
       </c>
       <c r="X59" t="str">
-        <f>IF(V59=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6124,19 +6288,19 @@
         <v>14</v>
       </c>
       <c r="D60" t="str">
-        <f>IF(L60=0,T60,U60)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E60" t="str">
-        <f>IF(L60=0,U60,T60)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F60" t="str">
-        <f>IF(AND(L60=0),"f",IF(AND(L60=1),"j",IF(AND(L60=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G60" t="str">
-        <f>IF(AND(V60=1,L60=0),"f",IF(AND(V60=1,L60=1),"j",IF(AND(V60=0,L60=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H60">
@@ -6170,19 +6334,19 @@
         <v>9</v>
       </c>
       <c r="R60">
-        <f>IF(L60=0,P60,Q60)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S60">
-        <f>IF(L60=0,Q60,P60)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="T60" t="str">
-        <f>CONCATENATE("images/choice_trial_",P60,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U60" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q60,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V60">
@@ -6192,14 +6356,17 @@
         <v>8</v>
       </c>
       <c r="X60" t="str">
-        <f>IF(V60=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6210,19 +6377,19 @@
         <v>22</v>
       </c>
       <c r="D61" t="str">
-        <f>IF(L61=0,T61,U61)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E61" t="str">
-        <f>IF(L61=0,U61,T61)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="F61" t="str">
-        <f>IF(AND(L61=0),"f",IF(AND(L61=1),"j",IF(AND(L61=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G61" t="str">
-        <f>IF(AND(V61=1,L61=0),"f",IF(AND(V61=1,L61=1),"j",IF(AND(V61=0,L61=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H61">
@@ -6256,19 +6423,19 @@
         <v>15</v>
       </c>
       <c r="R61">
-        <f>IF(L61=0,P61,Q61)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="S61">
-        <f>IF(L61=0,Q61,P61)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="T61" t="str">
-        <f>CONCATENATE("images/choice_trial_",P61,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U61" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q61,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V61">
@@ -6278,14 +6445,17 @@
         <v>8</v>
       </c>
       <c r="X61" t="str">
-        <f>IF(V61=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6296,19 +6466,19 @@
         <v>7</v>
       </c>
       <c r="D62" t="str">
-        <f>IF(L62=0,T62,U62)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E62" t="str">
-        <f>IF(L62=0,U62,T62)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="F62" t="str">
-        <f>IF(AND(L62=0),"f",IF(AND(L62=1),"j",IF(AND(L62=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G62" t="str">
-        <f>IF(AND(V62=1,L62=0),"f",IF(AND(V62=1,L62=1),"j",IF(AND(V62=0,L62=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H62">
@@ -6342,19 +6512,19 @@
         <v>2</v>
       </c>
       <c r="R62">
-        <f>IF(L62=0,P62,Q62)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="S62">
-        <f>IF(L62=0,Q62,P62)</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="T62" t="str">
-        <f>CONCATENATE("images/choice_trial_",P62,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U62" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q62,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V62">
@@ -6364,14 +6534,17 @@
         <v>8</v>
       </c>
       <c r="X62" t="str">
-        <f>IF(V62=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6382,19 +6555,19 @@
         <v>12</v>
       </c>
       <c r="D63" t="str">
-        <f>IF(L63=0,T63,U63)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E63" t="str">
-        <f>IF(L63=0,U63,T63)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F63" t="str">
-        <f>IF(AND(L63=0),"f",IF(AND(L63=1),"j",IF(AND(L63=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G63" t="str">
-        <f>IF(AND(V63=1,L63=0),"f",IF(AND(V63=1,L63=1),"j",IF(AND(V63=0,L63=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H63">
@@ -6428,19 +6601,19 @@
         <v>13</v>
       </c>
       <c r="R63">
-        <f>IF(L63=0,P63,Q63)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="S63">
-        <f>IF(L63=0,Q63,P63)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="T63" t="str">
-        <f>CONCATENATE("images/choice_trial_",P63,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U63" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q63,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V63">
@@ -6450,14 +6623,17 @@
         <v>8</v>
       </c>
       <c r="X63" t="str">
-        <f>IF(V63=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6468,19 +6644,19 @@
         <v>10</v>
       </c>
       <c r="D64" t="str">
-        <f>IF(L64=0,T64,U64)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E64" t="str">
-        <f>IF(L64=0,U64,T64)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F64" t="str">
-        <f>IF(AND(L64=0),"f",IF(AND(L64=1),"j",IF(AND(L64=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G64" t="str">
-        <f>IF(AND(V64=1,L64=0),"f",IF(AND(V64=1,L64=1),"j",IF(AND(V64=0,L64=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H64">
@@ -6514,19 +6690,19 @@
         <v>10</v>
       </c>
       <c r="R64">
-        <f>IF(L64=0,P64,Q64)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="S64">
-        <f>IF(L64=0,Q64,P64)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="T64" t="str">
-        <f>CONCATENATE("images/choice_trial_",P64,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U64" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q64,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V64">
@@ -6536,10 +6712,13 @@
         <v>8</v>
       </c>
       <c r="X64" t="str">
-        <f>IF(V64=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
         <v>0</v>
       </c>
     </row>
@@ -6554,19 +6733,19 @@
         <v>22</v>
       </c>
       <c r="D65" t="str">
-        <f>IF(L65=0,T65,U65)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="E65" t="str">
-        <f>IF(L65=0,U65,T65)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F65" t="str">
-        <f>IF(AND(L65=0),"f",IF(AND(L65=1),"j",IF(AND(L65=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G65" t="str">
-        <f>IF(AND(V65=1,L65=0),"f",IF(AND(V65=1,L65=1),"j",IF(AND(V65=0,L65=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H65">
@@ -6600,19 +6779,19 @@
         <v>15</v>
       </c>
       <c r="R65">
-        <f>IF(L65=0,P65,Q65)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="S65">
-        <f>IF(L65=0,Q65,P65)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="T65" t="str">
-        <f>CONCATENATE("images/choice_trial_",P65,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U65" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q65,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V65">
@@ -6622,11 +6801,14 @@
         <v>8</v>
       </c>
       <c r="X65" t="str">
-        <f>IF(V65=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y65">
         <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
@@ -6640,19 +6822,19 @@
         <v>14</v>
       </c>
       <c r="D66" t="str">
-        <f>IF(L66=0,T66,U66)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E66" t="str">
-        <f>IF(L66=0,U66,T66)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F66" t="str">
-        <f>IF(AND(L66=0),"f",IF(AND(L66=1),"j",IF(AND(L66=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G66" t="str">
-        <f>IF(AND(V66=1,L66=0),"f",IF(AND(V66=1,L66=1),"j",IF(AND(V66=0,L66=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H66">
@@ -6686,19 +6868,19 @@
         <v>9</v>
       </c>
       <c r="R66">
-        <f>IF(L66=0,P66,Q66)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="S66">
-        <f>IF(L66=0,Q66,P66)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T66" t="str">
-        <f>CONCATENATE("images/choice_trial_",P66,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U66" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q66,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V66">
@@ -6708,10 +6890,13 @@
         <v>8</v>
       </c>
       <c r="X66" t="str">
-        <f>IF(V66=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
         <v>0</v>
       </c>
     </row>
@@ -6726,19 +6911,19 @@
         <v>20</v>
       </c>
       <c r="D67" t="str">
-        <f>IF(L67=0,T67,U67)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E67" t="str">
-        <f>IF(L67=0,U67,T67)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="F67" t="str">
-        <f>IF(AND(L67=0),"f",IF(AND(L67=1),"j",IF(AND(L67=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G67" t="str">
-        <f>IF(AND(V67=1,L67=0),"f",IF(AND(V67=1,L67=1),"j",IF(AND(V67=0,L67=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H67">
@@ -6772,19 +6957,19 @@
         <v>4</v>
       </c>
       <c r="R67">
-        <f>IF(L67=0,P67,Q67)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="S67">
-        <f>IF(L67=0,Q67,P67)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="T67" t="str">
-        <f>CONCATENATE("images/choice_trial_",P67,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U67" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q67,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V67">
@@ -6794,11 +6979,14 @@
         <v>8</v>
       </c>
       <c r="X67" t="str">
-        <f>IF(V67=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y67">
         <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
@@ -6812,19 +7000,19 @@
         <v>7</v>
       </c>
       <c r="D68" t="str">
-        <f>IF(L68=0,T68,U68)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="E68" t="str">
-        <f>IF(L68=0,U68,T68)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F68" t="str">
-        <f>IF(AND(L68=0),"f",IF(AND(L68=1),"j",IF(AND(L68=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G68" t="str">
-        <f>IF(AND(V68=1,L68=0),"f",IF(AND(V68=1,L68=1),"j",IF(AND(V68=0,L68=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H68">
@@ -6858,19 +7046,19 @@
         <v>2</v>
       </c>
       <c r="R68">
-        <f>IF(L68=0,P68,Q68)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="S68">
-        <f>IF(L68=0,Q68,P68)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="T68" t="str">
-        <f>CONCATENATE("images/choice_trial_",P68,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U68" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q68,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V68">
@@ -6880,11 +7068,14 @@
         <v>8</v>
       </c>
       <c r="X68" t="str">
-        <f>IF(V68=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y68">
         <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
@@ -6898,19 +7089,19 @@
         <v>10</v>
       </c>
       <c r="D69" t="str">
-        <f>IF(L69=0,T69,U69)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E69" t="str">
-        <f>IF(L69=0,U69,T69)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F69" t="str">
-        <f>IF(AND(L69=0),"f",IF(AND(L69=1),"j",IF(AND(L69=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G69" t="str">
-        <f>IF(AND(V69=1,L69=0),"f",IF(AND(V69=1,L69=1),"j",IF(AND(V69=0,L69=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H69">
@@ -6944,19 +7135,19 @@
         <v>10</v>
       </c>
       <c r="R69">
-        <f>IF(L69=0,P69,Q69)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="S69">
-        <f>IF(L69=0,Q69,P69)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="T69" t="str">
-        <f>CONCATENATE("images/choice_trial_",P69,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U69" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q69,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V69">
@@ -6966,10 +7157,13 @@
         <v>8</v>
       </c>
       <c r="X69" t="str">
-        <f>IF(V69=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>j</v>
       </c>
       <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
         <v>0</v>
       </c>
     </row>
@@ -6984,19 +7178,19 @@
         <v>20</v>
       </c>
       <c r="D70" t="str">
-        <f>IF(L70=0,T70,U70)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="E70" t="str">
-        <f>IF(L70=0,U70,T70)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F70" t="str">
-        <f>IF(AND(L70=0),"f",IF(AND(L70=1),"j",IF(AND(L70=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>j</v>
       </c>
       <c r="G70" t="str">
-        <f>IF(AND(V70=1,L70=0),"f",IF(AND(V70=1,L70=1),"j",IF(AND(V70=0,L70=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>j</v>
       </c>
       <c r="H70">
@@ -7030,19 +7224,19 @@
         <v>4</v>
       </c>
       <c r="R70">
-        <f>IF(L70=0,P70,Q70)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S70">
-        <f>IF(L70=0,Q70,P70)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="T70" t="str">
-        <f>CONCATENATE("images/choice_trial_",P70,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U70" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q70,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V70">
@@ -7052,13 +7246,15 @@
         <v>8</v>
       </c>
       <c r="X70" t="str">
-        <f>IF(V70=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y70">
         <v>1</v>
       </c>
-      <c r="Z70" s="5"/>
+      <c r="Z70">
+        <v>0</v>
+      </c>
       <c r="AB70" s="5"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
@@ -7072,19 +7268,19 @@
         <v>14</v>
       </c>
       <c r="D71" t="str">
-        <f>IF(L71=0,T71,U71)</f>
+        <f t="shared" si="9"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E71" t="str">
-        <f>IF(L71=0,U71,T71)</f>
+        <f t="shared" si="10"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F71" t="str">
-        <f>IF(AND(L71=0),"f",IF(AND(L71=1),"j",IF(AND(L71=0),"j","f")))</f>
+        <f t="shared" si="11"/>
         <v>f</v>
       </c>
       <c r="G71" t="str">
-        <f>IF(AND(V71=1,L71=0),"f",IF(AND(V71=1,L71=1),"j",IF(AND(V71=0,L71=0),"j","f")))</f>
+        <f t="shared" si="12"/>
         <v>f</v>
       </c>
       <c r="H71">
@@ -7118,19 +7314,19 @@
         <v>9</v>
       </c>
       <c r="R71">
-        <f>IF(L71=0,P71,Q71)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="S71">
-        <f>IF(L71=0,Q71,P71)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="T71" t="str">
-        <f>CONCATENATE("images/choice_trial_",P71,".png")</f>
+        <f t="shared" si="15"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U71" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q71,".png")</f>
+        <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V71">
@@ -7140,10 +7336,13 @@
         <v>8</v>
       </c>
       <c r="X71" t="str">
-        <f>IF(V71=1,"f","j")</f>
+        <f t="shared" si="17"/>
         <v>f</v>
       </c>
       <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
         <v>0</v>
       </c>
     </row>
@@ -7158,19 +7357,19 @@
         <v>22</v>
       </c>
       <c r="D72" t="str">
-        <f>IF(L72=0,T72,U72)</f>
+        <f t="shared" ref="D72:D103" si="18">IF(L72=0,T72,U72)</f>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="E72" t="str">
-        <f>IF(L72=0,U72,T72)</f>
+        <f t="shared" ref="E72:E103" si="19">IF(L72=0,U72,T72)</f>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F72" t="str">
-        <f>IF(AND(L72=0),"f",IF(AND(L72=1),"j",IF(AND(L72=0),"j","f")))</f>
+        <f t="shared" ref="F72:F103" si="20">IF(AND(L72=0),"f",IF(AND(L72=1),"j",IF(AND(L72=0),"j","f")))</f>
         <v>j</v>
       </c>
       <c r="G72" t="str">
-        <f>IF(AND(V72=1,L72=0),"f",IF(AND(V72=1,L72=1),"j",IF(AND(V72=0,L72=0),"j","f")))</f>
+        <f t="shared" ref="G72:G103" si="21">IF(AND(V72=1,L72=0),"f",IF(AND(V72=1,L72=1),"j",IF(AND(V72=0,L72=0),"j","f")))</f>
         <v>j</v>
       </c>
       <c r="H72">
@@ -7204,19 +7403,19 @@
         <v>15</v>
       </c>
       <c r="R72">
-        <f>IF(L72=0,P72,Q72)</f>
+        <f t="shared" ref="R72:R103" si="22">IF(L72=0,P72,Q72)</f>
         <v>15</v>
       </c>
       <c r="S72">
-        <f>IF(L72=0,Q72,P72)</f>
+        <f t="shared" ref="S72:S103" si="23">IF(L72=0,Q72,P72)</f>
         <v>6</v>
       </c>
       <c r="T72" t="str">
-        <f>CONCATENATE("images/choice_trial_",P72,".png")</f>
+        <f t="shared" ref="T72:T103" si="24">CONCATENATE("images/choice_trial_",P72,".png")</f>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U72" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q72,".png")</f>
+        <f t="shared" ref="U72:U103" si="25">CONCATENATE("images/choice_trial_",Q72,".png")</f>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V72">
@@ -7226,11 +7425,14 @@
         <v>8</v>
       </c>
       <c r="X72" t="str">
-        <f>IF(V72=1,"f","j")</f>
+        <f t="shared" ref="X72:X103" si="26">IF(V72=1,"f","j")</f>
         <v>f</v>
       </c>
       <c r="Y72">
         <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
@@ -7244,19 +7446,19 @@
         <v>12</v>
       </c>
       <c r="D73" t="str">
-        <f>IF(L73=0,T73,U73)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E73" t="str">
-        <f>IF(L73=0,U73,T73)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F73" t="str">
-        <f>IF(AND(L73=0),"f",IF(AND(L73=1),"j",IF(AND(L73=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G73" t="str">
-        <f>IF(AND(V73=1,L73=0),"f",IF(AND(V73=1,L73=1),"j",IF(AND(V73=0,L73=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H73">
@@ -7290,19 +7492,19 @@
         <v>13</v>
       </c>
       <c r="R73">
-        <f>IF(L73=0,P73,Q73)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="S73">
-        <f>IF(L73=0,Q73,P73)</f>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="T73" t="str">
-        <f>CONCATENATE("images/choice_trial_",P73,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U73" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q73,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V73">
@@ -7312,10 +7514,13 @@
         <v>8</v>
       </c>
       <c r="X73" t="str">
-        <f>IF(V73=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
         <v>0</v>
       </c>
     </row>
@@ -7330,19 +7535,19 @@
         <v>7</v>
       </c>
       <c r="D74" t="str">
-        <f>IF(L74=0,T74,U74)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E74" t="str">
-        <f>IF(L74=0,U74,T74)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="F74" t="str">
-        <f>IF(AND(L74=0),"f",IF(AND(L74=1),"j",IF(AND(L74=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="G74" t="str">
-        <f>IF(AND(V74=1,L74=0),"f",IF(AND(V74=1,L74=1),"j",IF(AND(V74=0,L74=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H74">
@@ -7376,19 +7581,19 @@
         <v>2</v>
       </c>
       <c r="R74">
-        <f>IF(L74=0,P74,Q74)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="S74">
-        <f>IF(L74=0,Q74,P74)</f>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="T74" t="str">
-        <f>CONCATENATE("images/choice_trial_",P74,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U74" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q74,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V74">
@@ -7398,11 +7603,14 @@
         <v>8</v>
       </c>
       <c r="X74" t="str">
-        <f>IF(V74=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y74">
         <v>1</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
@@ -7416,19 +7624,19 @@
         <v>10</v>
       </c>
       <c r="D75" t="str">
-        <f>IF(L75=0,T75,U75)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E75" t="str">
-        <f>IF(L75=0,U75,T75)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F75" t="str">
-        <f>IF(AND(L75=0),"f",IF(AND(L75=1),"j",IF(AND(L75=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G75" t="str">
-        <f>IF(AND(V75=1,L75=0),"f",IF(AND(V75=1,L75=1),"j",IF(AND(V75=0,L75=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H75">
@@ -7462,19 +7670,19 @@
         <v>10</v>
       </c>
       <c r="R75">
-        <f>IF(L75=0,P75,Q75)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="S75">
-        <f>IF(L75=0,Q75,P75)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="T75" t="str">
-        <f>CONCATENATE("images/choice_trial_",P75,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U75" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q75,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V75">
@@ -7484,10 +7692,13 @@
         <v>8</v>
       </c>
       <c r="X75" t="str">
-        <f>IF(V75=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
         <v>0</v>
       </c>
     </row>
@@ -7502,19 +7713,19 @@
         <v>22</v>
       </c>
       <c r="D76" t="str">
-        <f>IF(L76=0,T76,U76)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="E76" t="str">
-        <f>IF(L76=0,U76,T76)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F76" t="str">
-        <f>IF(AND(L76=0),"f",IF(AND(L76=1),"j",IF(AND(L76=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="G76" t="str">
-        <f>IF(AND(V76=1,L76=0),"f",IF(AND(V76=1,L76=1),"j",IF(AND(V76=0,L76=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H76">
@@ -7548,19 +7759,19 @@
         <v>15</v>
       </c>
       <c r="R76">
-        <f>IF(L76=0,P76,Q76)</f>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="S76">
-        <f>IF(L76=0,Q76,P76)</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="T76" t="str">
-        <f>CONCATENATE("images/choice_trial_",P76,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U76" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q76,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V76">
@@ -7570,10 +7781,13 @@
         <v>8</v>
       </c>
       <c r="X76" t="str">
-        <f>IF(V76=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
         <v>1</v>
       </c>
     </row>
@@ -7588,19 +7802,19 @@
         <v>14</v>
       </c>
       <c r="D77" t="str">
-        <f>IF(L77=0,T77,U77)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E77" t="str">
-        <f>IF(L77=0,U77,T77)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F77" t="str">
-        <f>IF(AND(L77=0),"f",IF(AND(L77=1),"j",IF(AND(L77=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G77" t="str">
-        <f>IF(AND(V77=1,L77=0),"f",IF(AND(V77=1,L77=1),"j",IF(AND(V77=0,L77=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H77">
@@ -7634,19 +7848,19 @@
         <v>9</v>
       </c>
       <c r="R77">
-        <f>IF(L77=0,P77,Q77)</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="S77">
-        <f>IF(L77=0,Q77,P77)</f>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="T77" t="str">
-        <f>CONCATENATE("images/choice_trial_",P77,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U77" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q77,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V77">
@@ -7656,13 +7870,15 @@
         <v>8</v>
       </c>
       <c r="X77" t="str">
-        <f>IF(V77=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y77">
         <v>0</v>
       </c>
-      <c r="Z77" s="5"/>
+      <c r="Z77">
+        <v>0</v>
+      </c>
       <c r="AB77" s="5"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
@@ -7676,19 +7892,19 @@
         <v>20</v>
       </c>
       <c r="D78" t="str">
-        <f>IF(L78=0,T78,U78)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E78" t="str">
-        <f>IF(L78=0,U78,T78)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="F78" t="str">
-        <f>IF(AND(L78=0),"f",IF(AND(L78=1),"j",IF(AND(L78=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G78" t="str">
-        <f>IF(AND(V78=1,L78=0),"f",IF(AND(V78=1,L78=1),"j",IF(AND(V78=0,L78=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H78">
@@ -7722,19 +7938,19 @@
         <v>4</v>
       </c>
       <c r="R78">
-        <f>IF(L78=0,P78,Q78)</f>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="S78">
-        <f>IF(L78=0,Q78,P78)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="T78" t="str">
-        <f>CONCATENATE("images/choice_trial_",P78,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U78" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q78,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V78">
@@ -7744,11 +7960,14 @@
         <v>8</v>
       </c>
       <c r="X78" t="str">
-        <f>IF(V78=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>j</v>
       </c>
       <c r="Y78">
         <v>1</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
@@ -7762,19 +7981,19 @@
         <v>12</v>
       </c>
       <c r="D79" t="str">
-        <f>IF(L79=0,T79,U79)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E79" t="str">
-        <f>IF(L79=0,U79,T79)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F79" t="str">
-        <f>IF(AND(L79=0),"f",IF(AND(L79=1),"j",IF(AND(L79=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="G79" t="str">
-        <f>IF(AND(V79=1,L79=0),"f",IF(AND(V79=1,L79=1),"j",IF(AND(V79=0,L79=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H79">
@@ -7808,19 +8027,19 @@
         <v>13</v>
       </c>
       <c r="R79">
-        <f>IF(L79=0,P79,Q79)</f>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="S79">
-        <f>IF(L79=0,Q79,P79)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="T79" t="str">
-        <f>CONCATENATE("images/choice_trial_",P79,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U79" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q79,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V79">
@@ -7830,10 +8049,13 @@
         <v>8</v>
       </c>
       <c r="X79" t="str">
-        <f>IF(V79=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
         <v>0</v>
       </c>
     </row>
@@ -7848,19 +8070,19 @@
         <v>10</v>
       </c>
       <c r="D80" t="str">
-        <f>IF(L80=0,T80,U80)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E80" t="str">
-        <f>IF(L80=0,U80,T80)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F80" t="str">
-        <f>IF(AND(L80=0),"f",IF(AND(L80=1),"j",IF(AND(L80=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="G80" t="str">
-        <f>IF(AND(V80=1,L80=0),"f",IF(AND(V80=1,L80=1),"j",IF(AND(V80=0,L80=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H80">
@@ -7894,19 +8116,19 @@
         <v>10</v>
       </c>
       <c r="R80">
-        <f>IF(L80=0,P80,Q80)</f>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="S80">
-        <f>IF(L80=0,Q80,P80)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="T80" t="str">
-        <f>CONCATENATE("images/choice_trial_",P80,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U80" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q80,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V80">
@@ -7916,10 +8138,13 @@
         <v>8</v>
       </c>
       <c r="X80" t="str">
-        <f>IF(V80=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
         <v>0</v>
       </c>
     </row>
@@ -7934,19 +8159,19 @@
         <v>14</v>
       </c>
       <c r="D81" t="str">
-        <f>IF(L81=0,T81,U81)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E81" t="str">
-        <f>IF(L81=0,U81,T81)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F81" t="str">
-        <f>IF(AND(L81=0),"f",IF(AND(L81=1),"j",IF(AND(L81=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="G81" t="str">
-        <f>IF(AND(V81=1,L81=0),"f",IF(AND(V81=1,L81=1),"j",IF(AND(V81=0,L81=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H81">
@@ -7980,19 +8205,19 @@
         <v>9</v>
       </c>
       <c r="R81">
-        <f>IF(L81=0,P81,Q81)</f>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="S81">
-        <f>IF(L81=0,Q81,P81)</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="T81" t="str">
-        <f>CONCATENATE("images/choice_trial_",P81,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U81" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q81,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V81">
@@ -8002,10 +8227,13 @@
         <v>8</v>
       </c>
       <c r="X81" t="str">
-        <f>IF(V81=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
         <v>0</v>
       </c>
     </row>
@@ -8020,19 +8248,19 @@
         <v>20</v>
       </c>
       <c r="D82" t="str">
-        <f>IF(L82=0,T82,U82)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="E82" t="str">
-        <f>IF(L82=0,U82,T82)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F82" t="str">
-        <f>IF(AND(L82=0),"f",IF(AND(L82=1),"j",IF(AND(L82=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="G82" t="str">
-        <f>IF(AND(V82=1,L82=0),"f",IF(AND(V82=1,L82=1),"j",IF(AND(V82=0,L82=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H82">
@@ -8066,19 +8294,19 @@
         <v>4</v>
       </c>
       <c r="R82">
-        <f>IF(L82=0,P82,Q82)</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S82">
-        <f>IF(L82=0,Q82,P82)</f>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="T82" t="str">
-        <f>CONCATENATE("images/choice_trial_",P82,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U82" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q82,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V82">
@@ -8088,11 +8316,14 @@
         <v>8</v>
       </c>
       <c r="X82" t="str">
-        <f>IF(V82=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y82">
         <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
@@ -8106,19 +8337,19 @@
         <v>12</v>
       </c>
       <c r="D83" t="str">
-        <f>IF(L83=0,T83,U83)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E83" t="str">
-        <f>IF(L83=0,U83,T83)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F83" t="str">
-        <f>IF(AND(L83=0),"f",IF(AND(L83=1),"j",IF(AND(L83=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G83" t="str">
-        <f>IF(AND(V83=1,L83=0),"f",IF(AND(V83=1,L83=1),"j",IF(AND(V83=0,L83=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H83">
@@ -8152,19 +8383,19 @@
         <v>13</v>
       </c>
       <c r="R83">
-        <f>IF(L83=0,P83,Q83)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="S83">
-        <f>IF(L83=0,Q83,P83)</f>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="T83" t="str">
-        <f>CONCATENATE("images/choice_trial_",P83,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U83" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q83,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V83">
@@ -8174,10 +8405,13 @@
         <v>8</v>
       </c>
       <c r="X83" t="str">
-        <f>IF(V83=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
         <v>0</v>
       </c>
     </row>
@@ -8192,19 +8426,19 @@
         <v>22</v>
       </c>
       <c r="D84" t="str">
-        <f>IF(L84=0,T84,U84)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E84" t="str">
-        <f>IF(L84=0,U84,T84)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="F84" t="str">
-        <f>IF(AND(L84=0),"f",IF(AND(L84=1),"j",IF(AND(L84=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G84" t="str">
-        <f>IF(AND(V84=1,L84=0),"f",IF(AND(V84=1,L84=1),"j",IF(AND(V84=0,L84=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H84">
@@ -8238,19 +8472,19 @@
         <v>15</v>
       </c>
       <c r="R84">
-        <f>IF(L84=0,P84,Q84)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="S84">
-        <f>IF(L84=0,Q84,P84)</f>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="T84" t="str">
-        <f>CONCATENATE("images/choice_trial_",P84,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U84" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q84,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V84">
@@ -8260,11 +8494,14 @@
         <v>8</v>
       </c>
       <c r="X84" t="str">
-        <f>IF(V84=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y84">
         <v>1</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
@@ -8278,19 +8515,19 @@
         <v>7</v>
       </c>
       <c r="D85" t="str">
-        <f>IF(L85=0,T85,U85)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="E85" t="str">
-        <f>IF(L85=0,U85,T85)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F85" t="str">
-        <f>IF(AND(L85=0),"f",IF(AND(L85=1),"j",IF(AND(L85=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G85" t="str">
-        <f>IF(AND(V85=1,L85=0),"f",IF(AND(V85=1,L85=1),"j",IF(AND(V85=0,L85=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H85">
@@ -8324,19 +8561,19 @@
         <v>2</v>
       </c>
       <c r="R85">
-        <f>IF(L85=0,P85,Q85)</f>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="S85">
-        <f>IF(L85=0,Q85,P85)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="T85" t="str">
-        <f>CONCATENATE("images/choice_trial_",P85,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U85" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q85,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V85">
@@ -8346,11 +8583,14 @@
         <v>8</v>
       </c>
       <c r="X85" t="str">
-        <f>IF(V85=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y85">
         <v>1</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
@@ -8364,19 +8604,19 @@
         <v>14</v>
       </c>
       <c r="D86" t="str">
-        <f>IF(L86=0,T86,U86)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E86" t="str">
-        <f>IF(L86=0,U86,T86)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F86" t="str">
-        <f>IF(AND(L86=0),"f",IF(AND(L86=1),"j",IF(AND(L86=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G86" t="str">
-        <f>IF(AND(V86=1,L86=0),"f",IF(AND(V86=1,L86=1),"j",IF(AND(V86=0,L86=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H86">
@@ -8410,19 +8650,19 @@
         <v>9</v>
       </c>
       <c r="R86">
-        <f>IF(L86=0,P86,Q86)</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="S86">
-        <f>IF(L86=0,Q86,P86)</f>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="T86" t="str">
-        <f>CONCATENATE("images/choice_trial_",P86,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U86" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q86,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V86">
@@ -8432,10 +8672,13 @@
         <v>8</v>
       </c>
       <c r="X86" t="str">
-        <f>IF(V86=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
         <v>0</v>
       </c>
     </row>
@@ -8450,19 +8693,19 @@
         <v>10</v>
       </c>
       <c r="D87" t="str">
-        <f>IF(L87=0,T87,U87)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E87" t="str">
-        <f>IF(L87=0,U87,T87)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F87" t="str">
-        <f>IF(AND(L87=0),"f",IF(AND(L87=1),"j",IF(AND(L87=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G87" t="str">
-        <f>IF(AND(V87=1,L87=0),"f",IF(AND(V87=1,L87=1),"j",IF(AND(V87=0,L87=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H87">
@@ -8496,19 +8739,19 @@
         <v>10</v>
       </c>
       <c r="R87">
-        <f>IF(L87=0,P87,Q87)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="S87">
-        <f>IF(L87=0,Q87,P87)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="T87" t="str">
-        <f>CONCATENATE("images/choice_trial_",P87,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U87" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q87,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V87">
@@ -8518,10 +8761,13 @@
         <v>8</v>
       </c>
       <c r="X87" t="str">
-        <f>IF(V87=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
         <v>0</v>
       </c>
     </row>
@@ -8536,19 +8782,19 @@
         <v>22</v>
       </c>
       <c r="D88" t="str">
-        <f>IF(L88=0,T88,U88)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="E88" t="str">
-        <f>IF(L88=0,U88,T88)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F88" t="str">
-        <f>IF(AND(L88=0),"f",IF(AND(L88=1),"j",IF(AND(L88=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="G88" t="str">
-        <f>IF(AND(V88=1,L88=0),"f",IF(AND(V88=1,L88=1),"j",IF(AND(V88=0,L88=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H88">
@@ -8582,19 +8828,19 @@
         <v>15</v>
       </c>
       <c r="R88">
-        <f>IF(L88=0,P88,Q88)</f>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="S88">
-        <f>IF(L88=0,Q88,P88)</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="T88" t="str">
-        <f>CONCATENATE("images/choice_trial_",P88,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U88" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q88,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V88">
@@ -8604,13 +8850,15 @@
         <v>8</v>
       </c>
       <c r="X88" t="str">
-        <f>IF(V88=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>j</v>
       </c>
       <c r="Y88">
         <v>1</v>
       </c>
-      <c r="Z88" s="5"/>
+      <c r="Z88">
+        <v>0</v>
+      </c>
       <c r="AB88" s="5"/>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
@@ -8624,19 +8872,19 @@
         <v>20</v>
       </c>
       <c r="D89" t="str">
-        <f>IF(L89=0,T89,U89)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E89" t="str">
-        <f>IF(L89=0,U89,T89)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="F89" t="str">
-        <f>IF(AND(L89=0),"f",IF(AND(L89=1),"j",IF(AND(L89=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G89" t="str">
-        <f>IF(AND(V89=1,L89=0),"f",IF(AND(V89=1,L89=1),"j",IF(AND(V89=0,L89=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H89">
@@ -8670,19 +8918,19 @@
         <v>4</v>
       </c>
       <c r="R89">
-        <f>IF(L89=0,P89,Q89)</f>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="S89">
-        <f>IF(L89=0,Q89,P89)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="T89" t="str">
-        <f>CONCATENATE("images/choice_trial_",P89,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U89" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q89,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V89">
@@ -8692,11 +8940,14 @@
         <v>8</v>
       </c>
       <c r="X89" t="str">
-        <f>IF(V89=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y89">
         <v>1</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
@@ -8710,19 +8961,19 @@
         <v>12</v>
       </c>
       <c r="D90" t="str">
-        <f>IF(L90=0,T90,U90)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E90" t="str">
-        <f>IF(L90=0,U90,T90)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F90" t="str">
-        <f>IF(AND(L90=0),"f",IF(AND(L90=1),"j",IF(AND(L90=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G90" t="str">
-        <f>IF(AND(V90=1,L90=0),"f",IF(AND(V90=1,L90=1),"j",IF(AND(V90=0,L90=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H90">
@@ -8756,19 +9007,19 @@
         <v>13</v>
       </c>
       <c r="R90">
-        <f>IF(L90=0,P90,Q90)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="S90">
-        <f>IF(L90=0,Q90,P90)</f>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="T90" t="str">
-        <f>CONCATENATE("images/choice_trial_",P90,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U90" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q90,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V90">
@@ -8778,10 +9029,13 @@
         <v>8</v>
       </c>
       <c r="X90" t="str">
-        <f>IF(V90=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>j</v>
       </c>
       <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
         <v>0</v>
       </c>
     </row>
@@ -8796,19 +9050,19 @@
         <v>7</v>
       </c>
       <c r="D91" t="str">
-        <f>IF(L91=0,T91,U91)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E91" t="str">
-        <f>IF(L91=0,U91,T91)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="F91" t="str">
-        <f>IF(AND(L91=0),"f",IF(AND(L91=1),"j",IF(AND(L91=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="G91" t="str">
-        <f>IF(AND(V91=1,L91=0),"f",IF(AND(V91=1,L91=1),"j",IF(AND(V91=0,L91=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H91">
@@ -8842,19 +9096,19 @@
         <v>2</v>
       </c>
       <c r="R91">
-        <f>IF(L91=0,P91,Q91)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="S91">
-        <f>IF(L91=0,Q91,P91)</f>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="T91" t="str">
-        <f>CONCATENATE("images/choice_trial_",P91,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U91" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q91,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V91">
@@ -8864,11 +9118,14 @@
         <v>8</v>
       </c>
       <c r="X91" t="str">
-        <f>IF(V91=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>j</v>
       </c>
       <c r="Y91">
         <v>1</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
@@ -8882,19 +9139,19 @@
         <v>14</v>
       </c>
       <c r="D92" t="str">
-        <f>IF(L92=0,T92,U92)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E92" t="str">
-        <f>IF(L92=0,U92,T92)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F92" t="str">
-        <f>IF(AND(L92=0),"f",IF(AND(L92=1),"j",IF(AND(L92=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="G92" t="str">
-        <f>IF(AND(V92=1,L92=0),"f",IF(AND(V92=1,L92=1),"j",IF(AND(V92=0,L92=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H92">
@@ -8928,19 +9185,19 @@
         <v>9</v>
       </c>
       <c r="R92">
-        <f>IF(L92=0,P92,Q92)</f>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="S92">
-        <f>IF(L92=0,Q92,P92)</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="T92" t="str">
-        <f>CONCATENATE("images/choice_trial_",P92,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U92" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q92,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V92">
@@ -8950,10 +9207,13 @@
         <v>8</v>
       </c>
       <c r="X92" t="str">
-        <f>IF(V92=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>j</v>
       </c>
       <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
         <v>0</v>
       </c>
     </row>
@@ -8968,19 +9228,19 @@
         <v>20</v>
       </c>
       <c r="D93" t="str">
-        <f>IF(L93=0,T93,U93)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="E93" t="str">
-        <f>IF(L93=0,U93,T93)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F93" t="str">
-        <f>IF(AND(L93=0),"f",IF(AND(L93=1),"j",IF(AND(L93=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="G93" t="str">
-        <f>IF(AND(V93=1,L93=0),"f",IF(AND(V93=1,L93=1),"j",IF(AND(V93=0,L93=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H93">
@@ -9014,19 +9274,19 @@
         <v>4</v>
       </c>
       <c r="R93">
-        <f>IF(L93=0,P93,Q93)</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="S93">
-        <f>IF(L93=0,Q93,P93)</f>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="T93" t="str">
-        <f>CONCATENATE("images/choice_trial_",P93,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U93" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q93,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V93">
@@ -9036,11 +9296,14 @@
         <v>8</v>
       </c>
       <c r="X93" t="str">
-        <f>IF(V93=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y93">
         <v>1</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
@@ -9054,19 +9317,19 @@
         <v>10</v>
       </c>
       <c r="D94" t="str">
-        <f>IF(L94=0,T94,U94)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E94" t="str">
-        <f>IF(L94=0,U94,T94)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F94" t="str">
-        <f>IF(AND(L94=0),"f",IF(AND(L94=1),"j",IF(AND(L94=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G94" t="str">
-        <f>IF(AND(V94=1,L94=0),"f",IF(AND(V94=1,L94=1),"j",IF(AND(V94=0,L94=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H94">
@@ -9100,19 +9363,19 @@
         <v>10</v>
       </c>
       <c r="R94">
-        <f>IF(L94=0,P94,Q94)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="S94">
-        <f>IF(L94=0,Q94,P94)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="T94" t="str">
-        <f>CONCATENATE("images/choice_trial_",P94,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U94" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q94,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V94">
@@ -9122,10 +9385,13 @@
         <v>8</v>
       </c>
       <c r="X94" t="str">
-        <f>IF(V94=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
         <v>0</v>
       </c>
     </row>
@@ -9140,19 +9406,19 @@
         <v>7</v>
       </c>
       <c r="D95" t="str">
-        <f>IF(L95=0,T95,U95)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="E95" t="str">
-        <f>IF(L95=0,U95,T95)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F95" t="str">
-        <f>IF(AND(L95=0),"f",IF(AND(L95=1),"j",IF(AND(L95=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G95" t="str">
-        <f>IF(AND(V95=1,L95=0),"f",IF(AND(V95=1,L95=1),"j",IF(AND(V95=0,L95=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H95">
@@ -9186,19 +9452,19 @@
         <v>2</v>
       </c>
       <c r="R95">
-        <f>IF(L95=0,P95,Q95)</f>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="S95">
-        <f>IF(L95=0,Q95,P95)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="T95" t="str">
-        <f>CONCATENATE("images/choice_trial_",P95,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U95" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q95,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V95">
@@ -9208,13 +9474,15 @@
         <v>8</v>
       </c>
       <c r="X95" t="str">
-        <f>IF(V95=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y95">
         <v>1</v>
       </c>
-      <c r="Z95" s="5"/>
+      <c r="Z95">
+        <v>0</v>
+      </c>
       <c r="AB95" s="5"/>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
@@ -9228,19 +9496,19 @@
         <v>12</v>
       </c>
       <c r="D96" t="str">
-        <f>IF(L96=0,T96,U96)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E96" t="str">
-        <f>IF(L96=0,U96,T96)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F96" t="str">
-        <f>IF(AND(L96=0),"f",IF(AND(L96=1),"j",IF(AND(L96=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="G96" t="str">
-        <f>IF(AND(V96=1,L96=0),"f",IF(AND(V96=1,L96=1),"j",IF(AND(V96=0,L96=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H96">
@@ -9274,19 +9542,19 @@
         <v>13</v>
       </c>
       <c r="R96">
-        <f>IF(L96=0,P96,Q96)</f>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="S96">
-        <f>IF(L96=0,Q96,P96)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="T96" t="str">
-        <f>CONCATENATE("images/choice_trial_",P96,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U96" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q96,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V96">
@@ -9296,14 +9564,17 @@
         <v>8</v>
       </c>
       <c r="X96" t="str">
-        <f>IF(V96=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9314,19 +9585,19 @@
         <v>22</v>
       </c>
       <c r="D97" t="str">
-        <f>IF(L97=0,T97,U97)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E97" t="str">
-        <f>IF(L97=0,U97,T97)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="F97" t="str">
-        <f>IF(AND(L97=0),"f",IF(AND(L97=1),"j",IF(AND(L97=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G97" t="str">
-        <f>IF(AND(V97=1,L97=0),"f",IF(AND(V97=1,L97=1),"j",IF(AND(V97=0,L97=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H97">
@@ -9360,19 +9631,19 @@
         <v>15</v>
       </c>
       <c r="R97">
-        <f>IF(L97=0,P97,Q97)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="S97">
-        <f>IF(L97=0,Q97,P97)</f>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="T97" t="str">
-        <f>CONCATENATE("images/choice_trial_",P97,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U97" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q97,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V97">
@@ -9382,14 +9653,17 @@
         <v>8</v>
       </c>
       <c r="X97" t="str">
-        <f>IF(V97=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>j</v>
       </c>
       <c r="Y97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -9400,19 +9674,19 @@
         <v>20</v>
       </c>
       <c r="D98" t="str">
-        <f>IF(L98=0,T98,U98)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E98" t="str">
-        <f>IF(L98=0,U98,T98)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="F98" t="str">
-        <f>IF(AND(L98=0),"f",IF(AND(L98=1),"j",IF(AND(L98=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G98" t="str">
-        <f>IF(AND(V98=1,L98=0),"f",IF(AND(V98=1,L98=1),"j",IF(AND(V98=0,L98=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H98">
@@ -9446,19 +9720,19 @@
         <v>4</v>
       </c>
       <c r="R98">
-        <f>IF(L98=0,P98,Q98)</f>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="S98">
-        <f>IF(L98=0,Q98,P98)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="T98" t="str">
-        <f>CONCATENATE("images/choice_trial_",P98,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U98" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q98,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V98">
@@ -9468,14 +9742,17 @@
         <v>8</v>
       </c>
       <c r="X98" t="str">
-        <f>IF(V98=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -9486,19 +9763,19 @@
         <v>10</v>
       </c>
       <c r="D99" t="str">
-        <f>IF(L99=0,T99,U99)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E99" t="str">
-        <f>IF(L99=0,U99,T99)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F99" t="str">
-        <f>IF(AND(L99=0),"f",IF(AND(L99=1),"j",IF(AND(L99=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G99" t="str">
-        <f>IF(AND(V99=1,L99=0),"f",IF(AND(V99=1,L99=1),"j",IF(AND(V99=0,L99=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H99">
@@ -9532,19 +9809,19 @@
         <v>10</v>
       </c>
       <c r="R99">
-        <f>IF(L99=0,P99,Q99)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="S99">
-        <f>IF(L99=0,Q99,P99)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="T99" t="str">
-        <f>CONCATENATE("images/choice_trial_",P99,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U99" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q99,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V99">
@@ -9554,14 +9831,17 @@
         <v>8</v>
       </c>
       <c r="X99" t="str">
-        <f>IF(V99=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>j</v>
       </c>
       <c r="Y99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -9572,19 +9852,19 @@
         <v>12</v>
       </c>
       <c r="D100" t="str">
-        <f>IF(L100=0,T100,U100)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E100" t="str">
-        <f>IF(L100=0,U100,T100)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F100" t="str">
-        <f>IF(AND(L100=0),"f",IF(AND(L100=1),"j",IF(AND(L100=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="G100" t="str">
-        <f>IF(AND(V100=1,L100=0),"f",IF(AND(V100=1,L100=1),"j",IF(AND(V100=0,L100=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H100">
@@ -9618,19 +9898,19 @@
         <v>13</v>
       </c>
       <c r="R100">
-        <f>IF(L100=0,P100,Q100)</f>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="S100">
-        <f>IF(L100=0,Q100,P100)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="T100" t="str">
-        <f>CONCATENATE("images/choice_trial_",P100,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U100" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q100,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V100">
@@ -9640,14 +9920,17 @@
         <v>8</v>
       </c>
       <c r="X100" t="str">
-        <f>IF(V100=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -9658,19 +9941,19 @@
         <v>14</v>
       </c>
       <c r="D101" t="str">
-        <f>IF(L101=0,T101,U101)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E101" t="str">
-        <f>IF(L101=0,U101,T101)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F101" t="str">
-        <f>IF(AND(L101=0),"f",IF(AND(L101=1),"j",IF(AND(L101=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="G101" t="str">
-        <f>IF(AND(V101=1,L101=0),"f",IF(AND(V101=1,L101=1),"j",IF(AND(V101=0,L101=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H101">
@@ -9704,19 +9987,19 @@
         <v>9</v>
       </c>
       <c r="R101">
-        <f>IF(L101=0,P101,Q101)</f>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="S101">
-        <f>IF(L101=0,Q101,P101)</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="T101" t="str">
-        <f>CONCATENATE("images/choice_trial_",P101,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U101" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q101,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V101">
@@ -9726,14 +10009,17 @@
         <v>8</v>
       </c>
       <c r="X101" t="str">
-        <f>IF(V101=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>j</v>
       </c>
       <c r="Y101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9744,19 +10030,19 @@
         <v>7</v>
       </c>
       <c r="D102" t="str">
-        <f>IF(L102=0,T102,U102)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="E102" t="str">
-        <f>IF(L102=0,U102,T102)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F102" t="str">
-        <f>IF(AND(L102=0),"f",IF(AND(L102=1),"j",IF(AND(L102=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G102" t="str">
-        <f>IF(AND(V102=1,L102=0),"f",IF(AND(V102=1,L102=1),"j",IF(AND(V102=0,L102=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>j</v>
       </c>
       <c r="H102">
@@ -9790,19 +10076,19 @@
         <v>2</v>
       </c>
       <c r="R102">
-        <f>IF(L102=0,P102,Q102)</f>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="S102">
-        <f>IF(L102=0,Q102,P102)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="T102" t="str">
-        <f>CONCATENATE("images/choice_trial_",P102,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U102" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q102,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V102">
@@ -9812,14 +10098,17 @@
         <v>8</v>
       </c>
       <c r="X102" t="str">
-        <f>IF(V102=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>j</v>
       </c>
       <c r="Y102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9830,19 +10119,19 @@
         <v>22</v>
       </c>
       <c r="D103" t="str">
-        <f>IF(L103=0,T103,U103)</f>
+        <f t="shared" si="18"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="E103" t="str">
-        <f>IF(L103=0,U103,T103)</f>
+        <f t="shared" si="19"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="F103" t="str">
-        <f>IF(AND(L103=0),"f",IF(AND(L103=1),"j",IF(AND(L103=0),"j","f")))</f>
+        <f t="shared" si="20"/>
         <v>f</v>
       </c>
       <c r="G103" t="str">
-        <f>IF(AND(V103=1,L103=0),"f",IF(AND(V103=1,L103=1),"j",IF(AND(V103=0,L103=0),"j","f")))</f>
+        <f t="shared" si="21"/>
         <v>f</v>
       </c>
       <c r="H103">
@@ -9876,19 +10165,19 @@
         <v>15</v>
       </c>
       <c r="R103">
-        <f>IF(L103=0,P103,Q103)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="S103">
-        <f>IF(L103=0,Q103,P103)</f>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="T103" t="str">
-        <f>CONCATENATE("images/choice_trial_",P103,".png")</f>
+        <f t="shared" si="24"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U103" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q103,".png")</f>
+        <f t="shared" si="25"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V103">
@@ -9898,14 +10187,17 @@
         <v>8</v>
       </c>
       <c r="X103" t="str">
-        <f>IF(V103=1,"f","j")</f>
+        <f t="shared" si="26"/>
         <v>f</v>
       </c>
       <c r="Y103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9916,19 +10208,19 @@
         <v>10</v>
       </c>
       <c r="D104" t="str">
-        <f>IF(L104=0,T104,U104)</f>
+        <f t="shared" ref="D104:D115" si="27">IF(L104=0,T104,U104)</f>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="E104" t="str">
-        <f>IF(L104=0,U104,T104)</f>
+        <f t="shared" ref="E104:E115" si="28">IF(L104=0,U104,T104)</f>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="F104" t="str">
-        <f>IF(AND(L104=0),"f",IF(AND(L104=1),"j",IF(AND(L104=0),"j","f")))</f>
+        <f t="shared" ref="F104:F115" si="29">IF(AND(L104=0),"f",IF(AND(L104=1),"j",IF(AND(L104=0),"j","f")))</f>
         <v>j</v>
       </c>
       <c r="G104" t="str">
-        <f>IF(AND(V104=1,L104=0),"f",IF(AND(V104=1,L104=1),"j",IF(AND(V104=0,L104=0),"j","f")))</f>
+        <f t="shared" ref="G104:G115" si="30">IF(AND(V104=1,L104=0),"f",IF(AND(V104=1,L104=1),"j",IF(AND(V104=0,L104=0),"j","f")))</f>
         <v>j</v>
       </c>
       <c r="H104">
@@ -9962,19 +10254,19 @@
         <v>10</v>
       </c>
       <c r="R104">
-        <f>IF(L104=0,P104,Q104)</f>
+        <f t="shared" ref="R104:R135" si="31">IF(L104=0,P104,Q104)</f>
         <v>10</v>
       </c>
       <c r="S104">
-        <f>IF(L104=0,Q104,P104)</f>
+        <f t="shared" ref="S104:S115" si="32">IF(L104=0,Q104,P104)</f>
         <v>8</v>
       </c>
       <c r="T104" t="str">
-        <f>CONCATENATE("images/choice_trial_",P104,".png")</f>
+        <f t="shared" ref="T104:T115" si="33">CONCATENATE("images/choice_trial_",P104,".png")</f>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U104" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q104,".png")</f>
+        <f t="shared" ref="U104:U115" si="34">CONCATENATE("images/choice_trial_",Q104,".png")</f>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V104">
@@ -9984,14 +10276,17 @@
         <v>8</v>
       </c>
       <c r="X104" t="str">
-        <f>IF(V104=1,"f","j")</f>
+        <f t="shared" ref="X104:X115" si="35">IF(V104=1,"f","j")</f>
         <v>f</v>
       </c>
       <c r="Y104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10002,19 +10297,19 @@
         <v>14</v>
       </c>
       <c r="D105" t="str">
-        <f>IF(L105=0,T105,U105)</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="E105" t="str">
-        <f>IF(L105=0,U105,T105)</f>
+        <f t="shared" si="28"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="F105" t="str">
-        <f>IF(AND(L105=0),"f",IF(AND(L105=1),"j",IF(AND(L105=0),"j","f")))</f>
+        <f t="shared" si="29"/>
         <v>f</v>
       </c>
       <c r="G105" t="str">
-        <f>IF(AND(V105=1,L105=0),"f",IF(AND(V105=1,L105=1),"j",IF(AND(V105=0,L105=0),"j","f")))</f>
+        <f t="shared" si="30"/>
         <v>f</v>
       </c>
       <c r="H105">
@@ -10048,19 +10343,19 @@
         <v>9</v>
       </c>
       <c r="R105">
-        <f>IF(L105=0,P105,Q105)</f>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="S105">
-        <f>IF(L105=0,Q105,P105)</f>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="T105" t="str">
-        <f>CONCATENATE("images/choice_trial_",P105,".png")</f>
+        <f t="shared" si="33"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U105" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q105,".png")</f>
+        <f t="shared" si="34"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V105">
@@ -10070,14 +10365,17 @@
         <v>8</v>
       </c>
       <c r="X105" t="str">
-        <f>IF(V105=1,"f","j")</f>
+        <f t="shared" si="35"/>
         <v>f</v>
       </c>
       <c r="Y105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10088,19 +10386,19 @@
         <v>20</v>
       </c>
       <c r="D106" t="str">
-        <f>IF(L106=0,T106,U106)</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="E106" t="str">
-        <f>IF(L106=0,U106,T106)</f>
+        <f t="shared" si="28"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="F106" t="str">
-        <f>IF(AND(L106=0),"f",IF(AND(L106=1),"j",IF(AND(L106=0),"j","f")))</f>
+        <f t="shared" si="29"/>
         <v>j</v>
       </c>
       <c r="G106" t="str">
-        <f>IF(AND(V106=1,L106=0),"f",IF(AND(V106=1,L106=1),"j",IF(AND(V106=0,L106=0),"j","f")))</f>
+        <f t="shared" si="30"/>
         <v>j</v>
       </c>
       <c r="H106">
@@ -10134,19 +10432,19 @@
         <v>4</v>
       </c>
       <c r="R106">
-        <f>IF(L106=0,P106,Q106)</f>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="S106">
-        <f>IF(L106=0,Q106,P106)</f>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="T106" t="str">
-        <f>CONCATENATE("images/choice_trial_",P106,".png")</f>
+        <f t="shared" si="33"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U106" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q106,".png")</f>
+        <f t="shared" si="34"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V106">
@@ -10156,14 +10454,17 @@
         <v>8</v>
       </c>
       <c r="X106" t="str">
-        <f>IF(V106=1,"f","j")</f>
+        <f t="shared" si="35"/>
         <v>f</v>
       </c>
       <c r="Y106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -10174,19 +10475,19 @@
         <v>12</v>
       </c>
       <c r="D107" t="str">
-        <f>IF(L107=0,T107,U107)</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="E107" t="str">
-        <f>IF(L107=0,U107,T107)</f>
+        <f t="shared" si="28"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="F107" t="str">
-        <f>IF(AND(L107=0),"f",IF(AND(L107=1),"j",IF(AND(L107=0),"j","f")))</f>
+        <f t="shared" si="29"/>
         <v>f</v>
       </c>
       <c r="G107" t="str">
-        <f>IF(AND(V107=1,L107=0),"f",IF(AND(V107=1,L107=1),"j",IF(AND(V107=0,L107=0),"j","f")))</f>
+        <f t="shared" si="30"/>
         <v>j</v>
       </c>
       <c r="H107">
@@ -10220,19 +10521,19 @@
         <v>13</v>
       </c>
       <c r="R107">
-        <f>IF(L107=0,P107,Q107)</f>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="S107">
-        <f>IF(L107=0,Q107,P107)</f>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="T107" t="str">
-        <f>CONCATENATE("images/choice_trial_",P107,".png")</f>
+        <f t="shared" si="33"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U107" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q107,".png")</f>
+        <f t="shared" si="34"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V107">
@@ -10242,14 +10543,17 @@
         <v>8</v>
       </c>
       <c r="X107" t="str">
-        <f>IF(V107=1,"f","j")</f>
+        <f t="shared" si="35"/>
         <v>j</v>
       </c>
       <c r="Y107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -10260,19 +10564,19 @@
         <v>22</v>
       </c>
       <c r="D108" t="str">
-        <f>IF(L108=0,T108,U108)</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="E108" t="str">
-        <f>IF(L108=0,U108,T108)</f>
+        <f t="shared" si="28"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F108" t="str">
-        <f>IF(AND(L108=0),"f",IF(AND(L108=1),"j",IF(AND(L108=0),"j","f")))</f>
+        <f t="shared" si="29"/>
         <v>j</v>
       </c>
       <c r="G108" t="str">
-        <f>IF(AND(V108=1,L108=0),"f",IF(AND(V108=1,L108=1),"j",IF(AND(V108=0,L108=0),"j","f")))</f>
+        <f t="shared" si="30"/>
         <v>j</v>
       </c>
       <c r="H108">
@@ -10306,19 +10610,19 @@
         <v>15</v>
       </c>
       <c r="R108">
-        <f>IF(L108=0,P108,Q108)</f>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="S108">
-        <f>IF(L108=0,Q108,P108)</f>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="T108" t="str">
-        <f>CONCATENATE("images/choice_trial_",P108,".png")</f>
+        <f t="shared" si="33"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U108" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q108,".png")</f>
+        <f t="shared" si="34"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V108">
@@ -10328,14 +10632,17 @@
         <v>8</v>
       </c>
       <c r="X108" t="str">
-        <f>IF(V108=1,"f","j")</f>
+        <f t="shared" si="35"/>
         <v>f</v>
       </c>
       <c r="Y108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -10346,19 +10653,19 @@
         <v>7</v>
       </c>
       <c r="D109" t="str">
-        <f>IF(L109=0,T109,U109)</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="E109" t="str">
-        <f>IF(L109=0,U109,T109)</f>
+        <f t="shared" si="28"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="F109" t="str">
-        <f>IF(AND(L109=0),"f",IF(AND(L109=1),"j",IF(AND(L109=0),"j","f")))</f>
+        <f t="shared" si="29"/>
         <v>f</v>
       </c>
       <c r="G109" t="str">
-        <f>IF(AND(V109=1,L109=0),"f",IF(AND(V109=1,L109=1),"j",IF(AND(V109=0,L109=0),"j","f")))</f>
+        <f t="shared" si="30"/>
         <v>f</v>
       </c>
       <c r="H109">
@@ -10392,19 +10699,19 @@
         <v>2</v>
       </c>
       <c r="R109">
-        <f>IF(L109=0,P109,Q109)</f>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="S109">
-        <f>IF(L109=0,Q109,P109)</f>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="T109" t="str">
-        <f>CONCATENATE("images/choice_trial_",P109,".png")</f>
+        <f t="shared" si="33"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U109" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q109,".png")</f>
+        <f t="shared" si="34"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V109">
@@ -10414,14 +10721,17 @@
         <v>8</v>
       </c>
       <c r="X109" t="str">
-        <f>IF(V109=1,"f","j")</f>
+        <f t="shared" si="35"/>
         <v>f</v>
       </c>
       <c r="Y109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -10432,19 +10742,19 @@
         <v>14</v>
       </c>
       <c r="D110" t="str">
-        <f>IF(L110=0,T110,U110)</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="E110" t="str">
-        <f>IF(L110=0,U110,T110)</f>
+        <f t="shared" si="28"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="F110" t="str">
-        <f>IF(AND(L110=0),"f",IF(AND(L110=1),"j",IF(AND(L110=0),"j","f")))</f>
+        <f t="shared" si="29"/>
         <v>j</v>
       </c>
       <c r="G110" t="str">
-        <f>IF(AND(V110=1,L110=0),"f",IF(AND(V110=1,L110=1),"j",IF(AND(V110=0,L110=0),"j","f")))</f>
+        <f t="shared" si="30"/>
         <v>j</v>
       </c>
       <c r="H110">
@@ -10478,19 +10788,19 @@
         <v>9</v>
       </c>
       <c r="R110">
-        <f>IF(L110=0,P110,Q110)</f>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="S110">
-        <f>IF(L110=0,Q110,P110)</f>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
       <c r="T110" t="str">
-        <f>CONCATENATE("images/choice_trial_",P110,".png")</f>
+        <f t="shared" si="33"/>
         <v>images/choice_trial_14.png</v>
       </c>
       <c r="U110" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q110,".png")</f>
+        <f t="shared" si="34"/>
         <v>images/choice_trial_9.png</v>
       </c>
       <c r="V110">
@@ -10500,14 +10810,17 @@
         <v>8</v>
       </c>
       <c r="X110" t="str">
-        <f>IF(V110=1,"f","j")</f>
+        <f t="shared" si="35"/>
         <v>f</v>
       </c>
       <c r="Y110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -10518,19 +10831,19 @@
         <v>12</v>
       </c>
       <c r="D111" t="str">
-        <f>IF(L111=0,T111,U111)</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="E111" t="str">
-        <f>IF(L111=0,U111,T111)</f>
+        <f t="shared" si="28"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="F111" t="str">
-        <f>IF(AND(L111=0),"f",IF(AND(L111=1),"j",IF(AND(L111=0),"j","f")))</f>
+        <f t="shared" si="29"/>
         <v>j</v>
       </c>
       <c r="G111" t="str">
-        <f>IF(AND(V111=1,L111=0),"f",IF(AND(V111=1,L111=1),"j",IF(AND(V111=0,L111=0),"j","f")))</f>
+        <f t="shared" si="30"/>
         <v>j</v>
       </c>
       <c r="H111">
@@ -10564,19 +10877,19 @@
         <v>13</v>
       </c>
       <c r="R111">
-        <f>IF(L111=0,P111,Q111)</f>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
       <c r="S111">
-        <f>IF(L111=0,Q111,P111)</f>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="T111" t="str">
-        <f>CONCATENATE("images/choice_trial_",P111,".png")</f>
+        <f t="shared" si="33"/>
         <v>images/choice_trial_7.png</v>
       </c>
       <c r="U111" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q111,".png")</f>
+        <f t="shared" si="34"/>
         <v>images/choice_trial_13.png</v>
       </c>
       <c r="V111">
@@ -10586,14 +10899,17 @@
         <v>8</v>
       </c>
       <c r="X111" t="str">
-        <f>IF(V111=1,"f","j")</f>
+        <f t="shared" si="35"/>
         <v>f</v>
       </c>
       <c r="Y111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -10604,19 +10920,19 @@
         <v>22</v>
       </c>
       <c r="D112" t="str">
-        <f>IF(L112=0,T112,U112)</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="E112" t="str">
-        <f>IF(L112=0,U112,T112)</f>
+        <f t="shared" si="28"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="F112" t="str">
-        <f>IF(AND(L112=0),"f",IF(AND(L112=1),"j",IF(AND(L112=0),"j","f")))</f>
+        <f t="shared" si="29"/>
         <v>j</v>
       </c>
       <c r="G112" t="str">
-        <f>IF(AND(V112=1,L112=0),"f",IF(AND(V112=1,L112=1),"j",IF(AND(V112=0,L112=0),"j","f")))</f>
+        <f t="shared" si="30"/>
         <v>j</v>
       </c>
       <c r="H112">
@@ -10650,19 +10966,19 @@
         <v>15</v>
       </c>
       <c r="R112">
-        <f>IF(L112=0,P112,Q112)</f>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="S112">
-        <f>IF(L112=0,Q112,P112)</f>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="T112" t="str">
-        <f>CONCATENATE("images/choice_trial_",P112,".png")</f>
+        <f t="shared" si="33"/>
         <v>images/choice_trial_6.png</v>
       </c>
       <c r="U112" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q112,".png")</f>
+        <f t="shared" si="34"/>
         <v>images/choice_trial_15.png</v>
       </c>
       <c r="V112">
@@ -10672,14 +10988,17 @@
         <v>8</v>
       </c>
       <c r="X112" t="str">
-        <f>IF(V112=1,"f","j")</f>
+        <f t="shared" si="35"/>
         <v>f</v>
       </c>
       <c r="Y112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -10690,19 +11009,19 @@
         <v>10</v>
       </c>
       <c r="D113" t="str">
-        <f>IF(L113=0,T113,U113)</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="E113" t="str">
-        <f>IF(L113=0,U113,T113)</f>
+        <f t="shared" si="28"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="F113" t="str">
-        <f>IF(AND(L113=0),"f",IF(AND(L113=1),"j",IF(AND(L113=0),"j","f")))</f>
+        <f t="shared" si="29"/>
         <v>f</v>
       </c>
       <c r="G113" t="str">
-        <f>IF(AND(V113=1,L113=0),"f",IF(AND(V113=1,L113=1),"j",IF(AND(V113=0,L113=0),"j","f")))</f>
+        <f t="shared" si="30"/>
         <v>f</v>
       </c>
       <c r="H113">
@@ -10736,19 +11055,19 @@
         <v>10</v>
       </c>
       <c r="R113">
-        <f>IF(L113=0,P113,Q113)</f>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="S113">
-        <f>IF(L113=0,Q113,P113)</f>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="T113" t="str">
-        <f>CONCATENATE("images/choice_trial_",P113,".png")</f>
+        <f t="shared" si="33"/>
         <v>images/choice_trial_8.png</v>
       </c>
       <c r="U113" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q113,".png")</f>
+        <f t="shared" si="34"/>
         <v>images/choice_trial_10.png</v>
       </c>
       <c r="V113">
@@ -10758,14 +11077,17 @@
         <v>8</v>
       </c>
       <c r="X113" t="str">
-        <f>IF(V113=1,"f","j")</f>
+        <f t="shared" si="35"/>
         <v>f</v>
       </c>
       <c r="Y113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -10776,19 +11098,19 @@
         <v>20</v>
       </c>
       <c r="D114" t="str">
-        <f>IF(L114=0,T114,U114)</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="E114" t="str">
-        <f>IF(L114=0,U114,T114)</f>
+        <f t="shared" si="28"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="F114" t="str">
-        <f>IF(AND(L114=0),"f",IF(AND(L114=1),"j",IF(AND(L114=0),"j","f")))</f>
+        <f t="shared" si="29"/>
         <v>f</v>
       </c>
       <c r="G114" t="str">
-        <f>IF(AND(V114=1,L114=0),"f",IF(AND(V114=1,L114=1),"j",IF(AND(V114=0,L114=0),"j","f")))</f>
+        <f t="shared" si="30"/>
         <v>j</v>
       </c>
       <c r="H114">
@@ -10822,19 +11144,19 @@
         <v>4</v>
       </c>
       <c r="R114">
-        <f>IF(L114=0,P114,Q114)</f>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="S114">
-        <f>IF(L114=0,Q114,P114)</f>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="T114" t="str">
-        <f>CONCATENATE("images/choice_trial_",P114,".png")</f>
+        <f t="shared" si="33"/>
         <v>images/choice_trial_11.png</v>
       </c>
       <c r="U114" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q114,".png")</f>
+        <f t="shared" si="34"/>
         <v>images/choice_trial_4.png</v>
       </c>
       <c r="V114">
@@ -10844,14 +11166,17 @@
         <v>8</v>
       </c>
       <c r="X114" t="str">
-        <f>IF(V114=1,"f","j")</f>
+        <f t="shared" si="35"/>
         <v>j</v>
       </c>
       <c r="Y114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -10862,19 +11187,19 @@
         <v>7</v>
       </c>
       <c r="D115" t="str">
-        <f>IF(L115=0,T115,U115)</f>
+        <f t="shared" si="27"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="E115" t="str">
-        <f>IF(L115=0,U115,T115)</f>
+        <f t="shared" si="28"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="F115" t="str">
-        <f>IF(AND(L115=0),"f",IF(AND(L115=1),"j",IF(AND(L115=0),"j","f")))</f>
+        <f t="shared" si="29"/>
         <v>j</v>
       </c>
       <c r="G115" t="str">
-        <f>IF(AND(V115=1,L115=0),"f",IF(AND(V115=1,L115=1),"j",IF(AND(V115=0,L115=0),"j","f")))</f>
+        <f t="shared" si="30"/>
         <v>j</v>
       </c>
       <c r="H115">
@@ -10908,19 +11233,19 @@
         <v>2</v>
       </c>
       <c r="R115">
-        <f>IF(L115=0,P115,Q115)</f>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="S115">
-        <f>IF(L115=0,Q115,P115)</f>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="T115" t="str">
-        <f>CONCATENATE("images/choice_trial_",P115,".png")</f>
+        <f t="shared" si="33"/>
         <v>images/choice_trial_16.png</v>
       </c>
       <c r="U115" t="str">
-        <f>CONCATENATE("images/choice_trial_",Q115,".png")</f>
+        <f t="shared" si="34"/>
         <v>images/choice_trial_2.png</v>
       </c>
       <c r="V115">
@@ -10930,11 +11255,14 @@
         <v>8</v>
       </c>
       <c r="X115" t="str">
-        <f>IF(V115=1,"f","j")</f>
+        <f t="shared" si="35"/>
         <v>f</v>
       </c>
       <c r="Y115">
         <v>1</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lists/learn_list_study4_c5.xlsx
+++ b/lists/learn_list_study4_c5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gelliott/Documents/projects/delaylearn/feedback-delay-four/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB94F95B-6489-3441-A89D-0988B7FD0626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F5B544-117C-1D4F-AECE-F223EBBB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3740" yWindow="500" windowWidth="43380" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:AB115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="Z1" sqref="Z1:Z115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lists/learn_list_study4_c5.xlsx
+++ b/lists/learn_list_study4_c5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gelliott/Documents/projects/delaylearn/feedback-delay-four/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F5B544-117C-1D4F-AECE-F223EBBB1806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B96DC-5CD5-9C47-B43F-2372050D1F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3740" yWindow="500" windowWidth="43380" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,7 +698,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -711,6 +711,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1068,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E25E4B-9AFA-2443-8C1F-D7B80241CF51}">
   <dimension ref="A1:AB115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z115"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,7 +1091,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
@@ -1148,7 +1154,7 @@
       <c r="U1" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="W1" s="1" t="s">
@@ -1165,7 +1171,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1228,7 +1234,7 @@
       <c r="U2" t="s">
         <v>51</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="5">
         <v>1</v>
       </c>
       <c r="W2" t="s">
@@ -1246,7 +1252,7 @@
       <c r="AA2"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1309,7 +1315,7 @@
       <c r="U3" t="s">
         <v>51</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="5">
         <v>1</v>
       </c>
       <c r="W3" t="s">
@@ -1326,7 +1332,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1389,7 +1395,7 @@
       <c r="U4" t="s">
         <v>51</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="5">
         <v>0</v>
       </c>
       <c r="W4" t="s">
@@ -1407,7 +1413,7 @@
       <c r="AA4"/>
     </row>
     <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1470,7 +1476,7 @@
       <c r="U5" t="s">
         <v>51</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="5">
         <v>1</v>
       </c>
       <c r="W5" t="s">
@@ -1488,7 +1494,7 @@
       <c r="AA5"/>
     </row>
     <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1551,7 +1557,7 @@
       <c r="U6" t="s">
         <v>51</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="5">
         <v>1</v>
       </c>
       <c r="W6" t="s">
@@ -1569,7 +1575,7 @@
       <c r="AA6"/>
     </row>
     <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1632,7 +1638,7 @@
       <c r="U7" t="s">
         <v>51</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="5">
         <v>1</v>
       </c>
       <c r="W7" t="s">
@@ -1650,7 +1656,7 @@
       <c r="AA7"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1679,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J8">
         <v>7000</v>
@@ -1721,7 +1727,7 @@
         <f t="shared" ref="U8:U39" si="7">CONCATENATE("images/choice_trial_",Q8,".png")</f>
         <v>images/choice_trial_2.png</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="5">
         <v>1</v>
       </c>
       <c r="W8" t="s">
@@ -1739,7 +1745,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1768,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J9">
         <v>750</v>
@@ -1810,7 +1816,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="5">
         <v>1</v>
       </c>
       <c r="W9" t="s">
@@ -1828,7 +1834,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1857,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J10">
         <v>7000</v>
@@ -1899,7 +1905,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_4.png</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="5">
         <v>1</v>
       </c>
       <c r="W10" t="s">
@@ -1917,7 +1923,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1946,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>750</v>
@@ -1988,7 +1994,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_13.png</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="5">
         <v>1</v>
       </c>
       <c r="W11" t="s">
@@ -2006,11 +2012,11 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -2032,22 +2038,22 @@
         <v>j</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="J12">
         <v>750</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>6</v>
@@ -2055,10 +2061,10 @@
       <c r="O12">
         <v>5</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12">
         <v>14</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12">
         <v>9</v>
       </c>
       <c r="R12">
@@ -2077,7 +2083,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="5">
         <v>0</v>
       </c>
       <c r="W12" t="s">
@@ -2095,7 +2101,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2124,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J13">
         <v>7000</v>
@@ -2166,7 +2172,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="5">
         <v>1</v>
       </c>
       <c r="W13" t="s">
@@ -2184,7 +2190,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2213,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="J14">
         <v>7000</v>
@@ -2255,7 +2261,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="5">
         <v>0</v>
       </c>
       <c r="W14" t="s">
@@ -2273,7 +2279,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2302,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J15">
         <v>750</v>
@@ -2344,7 +2350,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_13.png</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="5">
         <v>1</v>
       </c>
       <c r="W15" t="s">
@@ -2362,11 +2368,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -2385,25 +2391,25 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J16">
         <v>750</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>6</v>
@@ -2411,10 +2417,10 @@
       <c r="O16">
         <v>5</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="4">
         <v>14</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="4">
         <v>9</v>
       </c>
       <c r="R16">
@@ -2433,15 +2439,15 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V16">
-        <v>0</v>
+      <c r="V16" s="5">
+        <v>1</v>
       </c>
       <c r="W16" t="s">
         <v>8</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="8"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2451,7 +2457,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2480,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J17">
         <v>7000</v>
@@ -2522,7 +2528,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_4.png</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="5">
         <v>1</v>
       </c>
       <c r="W17" t="s">
@@ -2540,7 +2546,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2563,13 +2569,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="3"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J18">
         <v>750</v>
@@ -2611,15 +2617,15 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V18">
-        <v>1</v>
+      <c r="V18" s="5">
+        <v>0</v>
       </c>
       <c r="W18" t="s">
         <v>8</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" si="8"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2629,7 +2635,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2658,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <v>7000</v>
@@ -2700,7 +2706,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="5">
         <v>1</v>
       </c>
       <c r="W19" t="s">
@@ -2718,7 +2724,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2747,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J20">
         <v>750</v>
@@ -2789,7 +2795,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="5">
         <v>1</v>
       </c>
       <c r="W20" t="s">
@@ -2807,7 +2813,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2836,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J21">
         <v>7000</v>
@@ -2878,7 +2884,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_4.png</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="5">
         <v>1</v>
       </c>
       <c r="W21" t="s">
@@ -2896,7 +2902,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22">
@@ -2925,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J22">
         <v>750</v>
@@ -2967,7 +2973,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="5">
         <v>1</v>
       </c>
       <c r="W22" t="s">
@@ -2985,7 +2991,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3008,13 +3014,13 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J23">
         <v>7000</v>
@@ -3056,15 +3062,15 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V23">
-        <v>1</v>
+      <c r="V23" s="5">
+        <v>0</v>
       </c>
       <c r="W23" t="s">
         <v>8</v>
       </c>
       <c r="X23" t="str">
         <f t="shared" si="8"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="Y23">
         <v>1</v>
@@ -3074,22 +3080,22 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>images/choice_trial_2.png</v>
+        <v>images/choice_trial_13.png</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v>images/choice_trial_16.png</v>
+        <v>images/choice_trial_7.png</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
@@ -3097,16 +3103,16 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="3"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J24">
-        <v>7000</v>
+        <v>750</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3118,67 +3124,67 @@
         <v>3</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P24" s="4">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Q24" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="R24">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="T24" t="str">
         <f t="shared" si="6"/>
-        <v>images/choice_trial_16.png</v>
+        <v>images/choice_trial_7.png</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="7"/>
-        <v>images/choice_trial_2.png</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
+        <v>images/choice_trial_13.png</v>
+      </c>
+      <c r="V24" s="5">
+        <v>1</v>
       </c>
       <c r="W24" t="s">
         <v>8</v>
       </c>
       <c r="X24" t="str">
         <f t="shared" si="8"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>images/choice_trial_13.png</v>
+        <v>images/choice_trial_2.png</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
-        <v>images/choice_trial_7.png</v>
+        <v>images/choice_trial_16.png</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
@@ -3192,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J25">
-        <v>750</v>
+        <v>7000</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3207,34 +3213,34 @@
         <v>3</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P25" s="4">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q25" s="4">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="R25">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="S25">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="T25" t="str">
         <f t="shared" si="6"/>
-        <v>images/choice_trial_7.png</v>
+        <v>images/choice_trial_16.png</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="7"/>
-        <v>images/choice_trial_13.png</v>
-      </c>
-      <c r="V25">
+        <v>images/choice_trial_2.png</v>
+      </c>
+      <c r="V25" s="5">
         <v>1</v>
       </c>
       <c r="W25" t="s">
@@ -3245,14 +3251,14 @@
         <v>f</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26">
@@ -3281,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J26">
         <v>750</v>
@@ -3323,7 +3329,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="5">
         <v>1</v>
       </c>
       <c r="W26" t="s">
@@ -3341,7 +3347,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27">
@@ -3370,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J27">
         <v>7000</v>
@@ -3412,7 +3418,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="5">
         <v>1</v>
       </c>
       <c r="W27" t="s">
@@ -3430,78 +3436,78 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>images/choice_trial_9.png</v>
+        <v>images/choice_trial_7.png</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="1"/>
-        <v>images/choice_trial_14.png</v>
+        <v>images/choice_trial_13.png</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="2"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J28">
         <v>750</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>4</v>
       </c>
       <c r="N28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P28" s="4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q28" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R28">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S28">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T28" t="str">
         <f t="shared" si="6"/>
-        <v>images/choice_trial_14.png</v>
+        <v>images/choice_trial_7.png</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="7"/>
-        <v>images/choice_trial_9.png</v>
-      </c>
-      <c r="V28">
+        <v>images/choice_trial_13.png</v>
+      </c>
+      <c r="V28" s="5">
         <v>1</v>
       </c>
       <c r="W28" t="s">
@@ -3519,78 +3525,78 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>images/choice_trial_7.png</v>
+        <v>images/choice_trial_9.png</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="1"/>
-        <v>images/choice_trial_13.png</v>
+        <v>images/choice_trial_14.png</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="2"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="3"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J29">
         <v>750</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
       <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
         <v>5</v>
       </c>
-      <c r="O29">
-        <v>4</v>
-      </c>
       <c r="P29" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q29" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R29">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S29">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T29" t="str">
         <f t="shared" si="6"/>
-        <v>images/choice_trial_7.png</v>
+        <v>images/choice_trial_14.png</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="7"/>
-        <v>images/choice_trial_13.png</v>
-      </c>
-      <c r="V29">
+        <v>images/choice_trial_9.png</v>
+      </c>
+      <c r="V29" s="5">
         <v>1</v>
       </c>
       <c r="W29" t="s">
@@ -3608,7 +3614,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30">
@@ -3637,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J30">
         <v>7000</v>
@@ -3679,7 +3685,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_4.png</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="5">
         <v>1</v>
       </c>
       <c r="W30" t="s">
@@ -3697,7 +3703,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31">
@@ -3726,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J31">
         <v>7000</v>
@@ -3768,7 +3774,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="5">
         <v>1</v>
       </c>
       <c r="W31" t="s">
@@ -3786,22 +3792,22 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>images/choice_trial_6.png</v>
+        <v>images/choice_trial_7.png</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="1"/>
-        <v>images/choice_trial_15.png</v>
+        <v>images/choice_trial_13.png</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="2"/>
@@ -3809,19 +3815,19 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="3"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J32">
-        <v>7000</v>
+        <v>750</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3830,67 +3836,67 @@
         <v>5</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P32" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q32" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R32">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S32">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T32" t="str">
         <f t="shared" si="6"/>
-        <v>images/choice_trial_6.png</v>
+        <v>images/choice_trial_7.png</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="7"/>
-        <v>images/choice_trial_15.png</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
+        <v>images/choice_trial_13.png</v>
+      </c>
+      <c r="V32" s="5">
+        <v>0</v>
       </c>
       <c r="W32" t="s">
         <v>8</v>
       </c>
       <c r="X32" t="str">
         <f t="shared" si="8"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>images/choice_trial_14.png</v>
+        <v>images/choice_trial_6.png</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="1"/>
-        <v>images/choice_trial_9.png</v>
+        <v>images/choice_trial_15.png</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="2"/>
@@ -3904,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J33">
-        <v>750</v>
+        <v>7000</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3919,34 +3925,34 @@
         <v>5</v>
       </c>
       <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
         <v>6</v>
       </c>
-      <c r="O33">
-        <v>5</v>
-      </c>
-      <c r="P33" s="4">
-        <v>14</v>
-      </c>
       <c r="Q33" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R33">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S33">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T33" t="str">
         <f t="shared" si="6"/>
-        <v>images/choice_trial_14.png</v>
+        <v>images/choice_trial_6.png</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="7"/>
-        <v>images/choice_trial_9.png</v>
-      </c>
-      <c r="V33">
+        <v>images/choice_trial_15.png</v>
+      </c>
+      <c r="V33" s="5">
         <v>1</v>
       </c>
       <c r="W33" t="s">
@@ -3957,29 +3963,29 @@
         <v>f</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>images/choice_trial_7.png</v>
+        <v>images/choice_trial_14.png</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="1"/>
-        <v>images/choice_trial_13.png</v>
+        <v>images/choice_trial_9.png</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="2"/>
@@ -3993,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="J34">
         <v>750</v>
@@ -4008,34 +4014,34 @@
         <v>5</v>
       </c>
       <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34">
         <v>5</v>
       </c>
-      <c r="O34">
-        <v>4</v>
-      </c>
       <c r="P34" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q34" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R34">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S34">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T34" t="str">
         <f t="shared" si="6"/>
-        <v>images/choice_trial_7.png</v>
+        <v>images/choice_trial_14.png</v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="7"/>
-        <v>images/choice_trial_13.png</v>
-      </c>
-      <c r="V34">
+        <v>images/choice_trial_9.png</v>
+      </c>
+      <c r="V34" s="5">
         <v>0</v>
       </c>
       <c r="W34" t="s">
@@ -4053,7 +4059,7 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35">
@@ -4082,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J35">
         <v>7000</v>
@@ -4124,7 +4130,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="5">
         <v>1</v>
       </c>
       <c r="W35" t="s">
@@ -4142,7 +4148,7 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36">
@@ -4171,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="J36">
         <v>7000</v>
@@ -4213,7 +4219,7 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_4.png</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="5">
         <v>0</v>
       </c>
       <c r="W36" t="s">
@@ -4231,7 +4237,7 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37">
@@ -4254,13 +4260,13 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J37">
         <v>750</v>
@@ -4302,15 +4308,15 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V37">
-        <v>0</v>
+      <c r="V37" s="5">
+        <v>1</v>
       </c>
       <c r="W37" t="s">
         <v>8</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" si="8"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -4320,7 +4326,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38">
@@ -4343,13 +4349,13 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="3"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J38">
         <v>7000</v>
@@ -4391,15 +4397,15 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V38">
-        <v>0</v>
+      <c r="V38" s="5">
+        <v>1</v>
       </c>
       <c r="W38" t="s">
         <v>8</v>
       </c>
       <c r="X38" t="str">
         <f t="shared" si="8"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="Y38">
         <v>1</v>
@@ -4409,7 +4415,7 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39">
@@ -4432,13 +4438,13 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="3"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="J39">
         <v>7000</v>
@@ -4480,15 +4486,15 @@
         <f t="shared" si="7"/>
         <v>images/choice_trial_2.png</v>
       </c>
-      <c r="V39">
-        <v>1</v>
+      <c r="V39" s="5">
+        <v>0</v>
       </c>
       <c r="W39" t="s">
         <v>8</v>
       </c>
       <c r="X39" t="str">
         <f t="shared" si="8"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="Y39">
         <v>1</v>
@@ -4498,7 +4504,7 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40">
@@ -4527,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J40">
         <v>750</v>
@@ -4569,7 +4575,7 @@
         <f t="shared" ref="U40:U71" si="16">CONCATENATE("images/choice_trial_",Q40,".png")</f>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="5">
         <v>1</v>
       </c>
       <c r="W40" t="s">
@@ -4587,7 +4593,7 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41">
@@ -4616,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J41">
         <v>750</v>
@@ -4658,7 +4664,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
-      <c r="V41">
+      <c r="V41" s="5">
         <v>1</v>
       </c>
       <c r="W41" t="s">
@@ -4676,7 +4682,7 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42">
@@ -4705,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J42">
         <v>7000</v>
@@ -4747,7 +4753,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_4.png</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="5">
         <v>1</v>
       </c>
       <c r="W42" t="s">
@@ -4765,7 +4771,7 @@
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43">
@@ -4794,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="J43">
         <v>750</v>
@@ -4836,7 +4842,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="5">
         <v>1</v>
       </c>
       <c r="W43" t="s">
@@ -4854,7 +4860,7 @@
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44">
@@ -4883,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J44">
         <v>7000</v>
@@ -4925,7 +4931,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V44">
+      <c r="V44" s="5">
         <v>1</v>
       </c>
       <c r="W44" t="s">
@@ -4943,7 +4949,7 @@
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45">
@@ -4972,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J45">
         <v>750</v>
@@ -5014,7 +5020,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="5">
         <v>0</v>
       </c>
       <c r="W45" t="s">
@@ -5032,7 +5038,7 @@
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46">
@@ -5061,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J46">
         <v>750</v>
@@ -5103,7 +5109,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
-      <c r="V46">
+      <c r="V46" s="5">
         <v>1</v>
       </c>
       <c r="W46" t="s">
@@ -5121,22 +5127,22 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="9"/>
-        <v>images/choice_trial_4.png</v>
+        <v>images/choice_trial_2.png</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="10"/>
-        <v>images/choice_trial_11.png</v>
+        <v>images/choice_trial_16.png</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="11"/>
@@ -5144,19 +5150,19 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="12"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="J47">
         <v>7000</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -5165,42 +5171,42 @@
         <v>7</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P47" s="4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q47" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R47">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S47">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T47" t="str">
         <f t="shared" si="15"/>
-        <v>images/choice_trial_11.png</v>
+        <v>images/choice_trial_16.png</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="16"/>
-        <v>images/choice_trial_4.png</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
+        <v>images/choice_trial_2.png</v>
+      </c>
+      <c r="V47" s="5">
+        <v>1</v>
       </c>
       <c r="W47" t="s">
         <v>8</v>
       </c>
       <c r="X47" t="str">
         <f t="shared" si="17"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="Y47">
         <v>1</v>
@@ -5210,22 +5216,22 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="9"/>
-        <v>images/choice_trial_2.png</v>
+        <v>images/choice_trial_4.png</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="10"/>
-        <v>images/choice_trial_16.png</v>
+        <v>images/choice_trial_11.png</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="11"/>
@@ -5233,19 +5239,19 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="12"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J48">
         <v>7000</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -5254,42 +5260,42 @@
         <v>7</v>
       </c>
       <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48">
         <v>3</v>
       </c>
-      <c r="O48">
-        <v>2</v>
-      </c>
       <c r="P48" s="4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q48" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R48">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S48">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T48" t="str">
         <f t="shared" si="15"/>
-        <v>images/choice_trial_16.png</v>
+        <v>images/choice_trial_11.png</v>
       </c>
       <c r="U48" t="str">
         <f t="shared" si="16"/>
-        <v>images/choice_trial_2.png</v>
-      </c>
-      <c r="V48">
-        <v>1</v>
+        <v>images/choice_trial_4.png</v>
+      </c>
+      <c r="V48" s="5">
+        <v>0</v>
       </c>
       <c r="W48" t="s">
         <v>8</v>
       </c>
       <c r="X48" t="str">
         <f t="shared" si="17"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="Y48">
         <v>1</v>
@@ -5299,7 +5305,7 @@
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49">
@@ -5328,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J49">
         <v>750</v>
@@ -5370,7 +5376,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V49">
+      <c r="V49" s="5">
         <v>1</v>
       </c>
       <c r="W49" t="s">
@@ -5388,7 +5394,7 @@
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50">
@@ -5417,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J50">
         <v>750</v>
@@ -5459,7 +5465,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="5">
         <v>1</v>
       </c>
       <c r="W50" t="s">
@@ -5477,22 +5483,22 @@
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="9"/>
-        <v>images/choice_trial_11.png</v>
+        <v>images/choice_trial_16.png</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="10"/>
-        <v>images/choice_trial_4.png</v>
+        <v>images/choice_trial_2.png</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="11"/>
@@ -5506,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J51">
         <v>7000</v>
@@ -5521,34 +5527,34 @@
         <v>8</v>
       </c>
       <c r="N51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P51" s="4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q51" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R51">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S51">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T51" t="str">
         <f t="shared" si="15"/>
-        <v>images/choice_trial_11.png</v>
+        <v>images/choice_trial_16.png</v>
       </c>
       <c r="U51" t="str">
         <f t="shared" si="16"/>
-        <v>images/choice_trial_4.png</v>
-      </c>
-      <c r="V51">
+        <v>images/choice_trial_2.png</v>
+      </c>
+      <c r="V51" s="5">
         <v>1</v>
       </c>
       <c r="W51" t="s">
@@ -5562,26 +5568,26 @@
         <v>1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="9"/>
-        <v>images/choice_trial_16.png</v>
+        <v>images/choice_trial_11.png</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="10"/>
-        <v>images/choice_trial_2.png</v>
+        <v>images/choice_trial_4.png</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="11"/>
@@ -5595,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J52">
         <v>7000</v>
@@ -5610,34 +5616,34 @@
         <v>8</v>
       </c>
       <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52">
         <v>3</v>
       </c>
-      <c r="O52">
-        <v>2</v>
-      </c>
       <c r="P52" s="4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R52">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="S52">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T52" t="str">
         <f t="shared" si="15"/>
-        <v>images/choice_trial_16.png</v>
+        <v>images/choice_trial_11.png</v>
       </c>
       <c r="U52" t="str">
         <f t="shared" si="16"/>
-        <v>images/choice_trial_2.png</v>
-      </c>
-      <c r="V52">
+        <v>images/choice_trial_4.png</v>
+      </c>
+      <c r="V52" s="5">
         <v>1</v>
       </c>
       <c r="W52" t="s">
@@ -5651,11 +5657,11 @@
         <v>1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53">
@@ -5684,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J53">
         <v>750</v>
@@ -5726,7 +5732,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="5">
         <v>1</v>
       </c>
       <c r="W53" t="s">
@@ -5744,7 +5750,7 @@
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54">
@@ -5773,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J54">
         <v>7000</v>
@@ -5815,7 +5821,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="5">
         <v>0</v>
       </c>
       <c r="W54" t="s">
@@ -5833,7 +5839,7 @@
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55">
@@ -5862,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J55">
         <v>750</v>
@@ -5904,7 +5910,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="5">
         <v>1</v>
       </c>
       <c r="W55" t="s">
@@ -5922,7 +5928,7 @@
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56">
@@ -5951,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J56">
         <v>7000</v>
@@ -5993,7 +5999,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_2.png</v>
       </c>
-      <c r="V56">
+      <c r="V56" s="5">
         <v>1</v>
       </c>
       <c r="W56" t="s">
@@ -6011,7 +6017,7 @@
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57">
@@ -6040,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J57">
         <v>750</v>
@@ -6082,7 +6088,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
-      <c r="V57">
+      <c r="V57" s="5">
         <v>0</v>
       </c>
       <c r="W57" t="s">
@@ -6100,7 +6106,7 @@
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58">
@@ -6129,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J58">
         <v>7000</v>
@@ -6171,7 +6177,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_4.png</v>
       </c>
-      <c r="V58">
+      <c r="V58" s="5">
         <v>1</v>
       </c>
       <c r="W58" t="s">
@@ -6189,7 +6195,7 @@
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59">
@@ -6218,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J59">
         <v>750</v>
@@ -6260,7 +6266,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V59">
+      <c r="V59" s="5">
         <v>1</v>
       </c>
       <c r="W59" t="s">
@@ -6278,7 +6284,7 @@
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60">
@@ -6307,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="J60">
         <v>750</v>
@@ -6349,7 +6355,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V60">
+      <c r="V60" s="5">
         <v>1</v>
       </c>
       <c r="W60" t="s">
@@ -6367,7 +6373,7 @@
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61">
@@ -6396,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J61">
         <v>7000</v>
@@ -6438,7 +6444,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V61">
+      <c r="V61" s="5">
         <v>1</v>
       </c>
       <c r="W61" t="s">
@@ -6456,7 +6462,7 @@
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62">
@@ -6485,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J62">
         <v>7000</v>
@@ -6527,7 +6533,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_2.png</v>
       </c>
-      <c r="V62">
+      <c r="V62" s="5">
         <v>1</v>
       </c>
       <c r="W62" t="s">
@@ -6545,7 +6551,7 @@
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63">
@@ -6574,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="J63">
         <v>750</v>
@@ -6616,7 +6622,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_13.png</v>
       </c>
-      <c r="V63">
+      <c r="V63" s="5">
         <v>1</v>
       </c>
       <c r="W63" t="s">
@@ -6634,7 +6640,7 @@
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64">
@@ -6663,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J64">
         <v>750</v>
@@ -6705,7 +6711,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V64">
+      <c r="V64" s="5">
         <v>1</v>
       </c>
       <c r="W64" t="s">
@@ -6723,7 +6729,7 @@
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65">
@@ -6752,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J65">
         <v>7000</v>
@@ -6794,7 +6800,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V65">
+      <c r="V65" s="5">
         <v>1</v>
       </c>
       <c r="W65" t="s">
@@ -6812,7 +6818,7 @@
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66">
@@ -6841,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J66">
         <v>750</v>
@@ -6883,7 +6889,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V66">
+      <c r="V66" s="5">
         <v>1</v>
       </c>
       <c r="W66" t="s">
@@ -6901,7 +6907,7 @@
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67">
@@ -6930,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J67">
         <v>7000</v>
@@ -6972,7 +6978,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_4.png</v>
       </c>
-      <c r="V67">
+      <c r="V67" s="5">
         <v>1</v>
       </c>
       <c r="W67" t="s">
@@ -6990,26 +6996,26 @@
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="9"/>
-        <v>images/choice_trial_16.png</v>
+        <v>images/choice_trial_10.png</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="10"/>
-        <v>images/choice_trial_2.png</v>
+        <v>images/choice_trial_8.png</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="11"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="12"/>
@@ -7019,86 +7025,86 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J68">
-        <v>7000</v>
+        <v>750</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>11</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P68" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q68" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R68">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="S68">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T68" t="str">
         <f t="shared" si="15"/>
-        <v>images/choice_trial_16.png</v>
+        <v>images/choice_trial_8.png</v>
       </c>
       <c r="U68" t="str">
         <f t="shared" si="16"/>
-        <v>images/choice_trial_2.png</v>
-      </c>
-      <c r="V68">
-        <v>1</v>
+        <v>images/choice_trial_10.png</v>
+      </c>
+      <c r="V68" s="5">
+        <v>0</v>
       </c>
       <c r="W68" t="s">
         <v>8</v>
       </c>
       <c r="X68" t="str">
         <f t="shared" si="17"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="Y68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="9"/>
-        <v>images/choice_trial_10.png</v>
+        <v>images/choice_trial_16.png</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="10"/>
-        <v>images/choice_trial_8.png</v>
+        <v>images/choice_trial_2.png</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="11"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="12"/>
@@ -7108,67 +7114,67 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J69">
-        <v>750</v>
+        <v>7000</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>11</v>
       </c>
       <c r="N69">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P69" s="4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q69" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R69">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S69">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T69" t="str">
         <f t="shared" si="15"/>
-        <v>images/choice_trial_8.png</v>
+        <v>images/choice_trial_16.png</v>
       </c>
       <c r="U69" t="str">
         <f t="shared" si="16"/>
-        <v>images/choice_trial_10.png</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
+        <v>images/choice_trial_2.png</v>
+      </c>
+      <c r="V69" s="5">
+        <v>1</v>
       </c>
       <c r="W69" t="s">
         <v>8</v>
       </c>
       <c r="X69" t="str">
         <f t="shared" si="17"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z69">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70">
@@ -7197,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J70">
         <v>7000</v>
@@ -7239,7 +7245,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_4.png</v>
       </c>
-      <c r="V70">
+      <c r="V70" s="5">
         <v>1</v>
       </c>
       <c r="W70" t="s">
@@ -7258,7 +7264,7 @@
       <c r="AB70" s="5"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71">
@@ -7287,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J71">
         <v>750</v>
@@ -7329,7 +7335,7 @@
         <f t="shared" si="16"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V71">
+      <c r="V71" s="5">
         <v>1</v>
       </c>
       <c r="W71" t="s">
@@ -7347,7 +7353,7 @@
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72">
@@ -7376,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J72">
         <v>7000</v>
@@ -7418,7 +7424,7 @@
         <f t="shared" ref="U72:U103" si="25">CONCATENATE("images/choice_trial_",Q72,".png")</f>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V72">
+      <c r="V72" s="5">
         <v>1</v>
       </c>
       <c r="W72" t="s">
@@ -7436,7 +7442,7 @@
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73">
@@ -7465,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J73">
         <v>750</v>
@@ -7507,7 +7513,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_13.png</v>
       </c>
-      <c r="V73">
+      <c r="V73" s="5">
         <v>1</v>
       </c>
       <c r="W73" t="s">
@@ -7525,78 +7531,78 @@
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="18"/>
-        <v>images/choice_trial_2.png</v>
+        <v>images/choice_trial_8.png</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="19"/>
-        <v>images/choice_trial_16.png</v>
+        <v>images/choice_trial_10.png</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="20"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="21"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J74">
-        <v>7000</v>
+        <v>750</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>12</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P74" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q74" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R74">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S74">
         <f t="shared" si="23"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T74" t="str">
         <f t="shared" si="24"/>
-        <v>images/choice_trial_16.png</v>
+        <v>images/choice_trial_8.png</v>
       </c>
       <c r="U74" t="str">
         <f t="shared" si="25"/>
-        <v>images/choice_trial_2.png</v>
-      </c>
-      <c r="V74">
+        <v>images/choice_trial_10.png</v>
+      </c>
+      <c r="V74" s="5">
         <v>1</v>
       </c>
       <c r="W74" t="s">
@@ -7607,85 +7613,85 @@
         <v>f</v>
       </c>
       <c r="Y74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="18"/>
-        <v>images/choice_trial_8.png</v>
+        <v>images/choice_trial_2.png</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="19"/>
-        <v>images/choice_trial_10.png</v>
+        <v>images/choice_trial_16.png</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="20"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="21"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J75">
-        <v>750</v>
+        <v>7000</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75">
         <v>12</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P75" s="4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q75" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R75">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S75">
         <f t="shared" si="23"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T75" t="str">
         <f t="shared" si="24"/>
-        <v>images/choice_trial_8.png</v>
+        <v>images/choice_trial_16.png</v>
       </c>
       <c r="U75" t="str">
         <f t="shared" si="25"/>
-        <v>images/choice_trial_10.png</v>
-      </c>
-      <c r="V75">
+        <v>images/choice_trial_2.png</v>
+      </c>
+      <c r="V75" s="5">
         <v>1</v>
       </c>
       <c r="W75" t="s">
@@ -7696,14 +7702,14 @@
         <v>f</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76">
@@ -7732,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J76">
         <v>7000</v>
@@ -7774,7 +7780,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V76">
+      <c r="V76" s="5">
         <v>1</v>
       </c>
       <c r="W76" t="s">
@@ -7792,7 +7798,7 @@
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77">
@@ -7821,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J77">
         <v>750</v>
@@ -7863,7 +7869,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V77">
+      <c r="V77" s="5">
         <v>1</v>
       </c>
       <c r="W77" t="s">
@@ -7882,26 +7888,26 @@
       <c r="AB77" s="5"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="18"/>
-        <v>images/choice_trial_11.png</v>
+        <v>images/choice_trial_13.png</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="19"/>
-        <v>images/choice_trial_4.png</v>
+        <v>images/choice_trial_7.png</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="20"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="21"/>
@@ -7911,86 +7917,86 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="J78">
-        <v>7000</v>
+        <v>750</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>12</v>
       </c>
       <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78">
         <v>4</v>
       </c>
-      <c r="O78">
-        <v>3</v>
-      </c>
       <c r="P78" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q78" s="4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R78">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S78">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T78" t="str">
         <f t="shared" si="24"/>
-        <v>images/choice_trial_11.png</v>
+        <v>images/choice_trial_7.png</v>
       </c>
       <c r="U78" t="str">
         <f t="shared" si="25"/>
-        <v>images/choice_trial_4.png</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
+        <v>images/choice_trial_13.png</v>
+      </c>
+      <c r="V78" s="5">
+        <v>1</v>
       </c>
       <c r="W78" t="s">
         <v>8</v>
       </c>
       <c r="X78" t="str">
         <f t="shared" si="26"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="Y78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z78">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="18"/>
-        <v>images/choice_trial_13.png</v>
+        <v>images/choice_trial_11.png</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="19"/>
-        <v>images/choice_trial_7.png</v>
+        <v>images/choice_trial_4.png</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="20"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="21"/>
@@ -8000,67 +8006,67 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="J79">
-        <v>750</v>
+        <v>7000</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>12</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O79">
+        <v>3</v>
+      </c>
+      <c r="P79" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q79" s="4">
         <v>4</v>
-      </c>
-      <c r="P79" s="4">
-        <v>7</v>
-      </c>
-      <c r="Q79" s="4">
-        <v>13</v>
       </c>
       <c r="R79">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S79">
         <f t="shared" si="23"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T79" t="str">
         <f t="shared" si="24"/>
-        <v>images/choice_trial_7.png</v>
+        <v>images/choice_trial_11.png</v>
       </c>
       <c r="U79" t="str">
         <f t="shared" si="25"/>
-        <v>images/choice_trial_13.png</v>
-      </c>
-      <c r="V79">
-        <v>1</v>
+        <v>images/choice_trial_4.png</v>
+      </c>
+      <c r="V79" s="5">
+        <v>0</v>
       </c>
       <c r="W79" t="s">
         <v>8</v>
       </c>
       <c r="X79" t="str">
         <f t="shared" si="26"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="Y79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z79">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80">
@@ -8089,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J80">
         <v>750</v>
@@ -8131,7 +8137,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V80">
+      <c r="V80" s="5">
         <v>1</v>
       </c>
       <c r="W80" t="s">
@@ -8149,7 +8155,7 @@
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81">
@@ -8178,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J81">
         <v>750</v>
@@ -8220,7 +8226,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V81">
+      <c r="V81" s="5">
         <v>1</v>
       </c>
       <c r="W81" t="s">
@@ -8238,78 +8244,78 @@
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="18"/>
-        <v>images/choice_trial_4.png</v>
+        <v>images/choice_trial_7.png</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="19"/>
-        <v>images/choice_trial_11.png</v>
+        <v>images/choice_trial_13.png</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="20"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="21"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J82">
-        <v>7000</v>
+        <v>750</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82">
         <v>13</v>
       </c>
       <c r="N82">
+        <v>5</v>
+      </c>
+      <c r="O82">
         <v>4</v>
       </c>
-      <c r="O82">
-        <v>3</v>
-      </c>
       <c r="P82" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q82" s="4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R82">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S82">
         <f t="shared" si="23"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T82" t="str">
         <f t="shared" si="24"/>
-        <v>images/choice_trial_11.png</v>
+        <v>images/choice_trial_7.png</v>
       </c>
       <c r="U82" t="str">
         <f t="shared" si="25"/>
-        <v>images/choice_trial_4.png</v>
-      </c>
-      <c r="V82">
+        <v>images/choice_trial_13.png</v>
+      </c>
+      <c r="V82" s="5">
         <v>1</v>
       </c>
       <c r="W82" t="s">
@@ -8320,85 +8326,85 @@
         <v>f</v>
       </c>
       <c r="Y82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z82">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="18"/>
-        <v>images/choice_trial_7.png</v>
+        <v>images/choice_trial_4.png</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="19"/>
-        <v>images/choice_trial_13.png</v>
+        <v>images/choice_trial_11.png</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="20"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="21"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J83">
-        <v>750</v>
+        <v>7000</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>13</v>
       </c>
       <c r="N83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O83">
+        <v>3</v>
+      </c>
+      <c r="P83" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q83" s="4">
         <v>4</v>
-      </c>
-      <c r="P83" s="4">
-        <v>7</v>
-      </c>
-      <c r="Q83" s="4">
-        <v>13</v>
       </c>
       <c r="R83">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S83">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T83" t="str">
         <f t="shared" si="24"/>
-        <v>images/choice_trial_7.png</v>
+        <v>images/choice_trial_11.png</v>
       </c>
       <c r="U83" t="str">
         <f t="shared" si="25"/>
-        <v>images/choice_trial_13.png</v>
-      </c>
-      <c r="V83">
+        <v>images/choice_trial_4.png</v>
+      </c>
+      <c r="V83" s="5">
         <v>1</v>
       </c>
       <c r="W83" t="s">
@@ -8409,14 +8415,14 @@
         <v>f</v>
       </c>
       <c r="Y83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84">
@@ -8445,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J84">
         <v>7000</v>
@@ -8487,7 +8493,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V84">
+      <c r="V84" s="5">
         <v>1</v>
       </c>
       <c r="W84" t="s">
@@ -8505,7 +8511,7 @@
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85">
@@ -8534,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J85">
         <v>7000</v>
@@ -8576,7 +8582,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_2.png</v>
       </c>
-      <c r="V85">
+      <c r="V85" s="5">
         <v>1</v>
       </c>
       <c r="W85" t="s">
@@ -8594,7 +8600,7 @@
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86">
@@ -8623,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J86">
         <v>750</v>
@@ -8665,7 +8671,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V86">
+      <c r="V86" s="5">
         <v>1</v>
       </c>
       <c r="W86" t="s">
@@ -8683,7 +8689,7 @@
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87">
@@ -8712,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J87">
         <v>750</v>
@@ -8754,7 +8760,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V87">
+      <c r="V87" s="5">
         <v>1</v>
       </c>
       <c r="W87" t="s">
@@ -8772,7 +8778,7 @@
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
       <c r="B88">
@@ -8801,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J88">
         <v>7000</v>
@@ -8843,7 +8849,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V88">
+      <c r="V88" s="5">
         <v>0</v>
       </c>
       <c r="W88" t="s">
@@ -8862,7 +8868,7 @@
       <c r="AB88" s="5"/>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
       <c r="B89">
@@ -8891,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J89">
         <v>7000</v>
@@ -8933,7 +8939,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_4.png</v>
       </c>
-      <c r="V89">
+      <c r="V89" s="5">
         <v>1</v>
       </c>
       <c r="W89" t="s">
@@ -8951,7 +8957,7 @@
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
       <c r="B90">
@@ -8980,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="J90">
         <v>750</v>
@@ -9022,7 +9028,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_13.png</v>
       </c>
-      <c r="V90">
+      <c r="V90" s="5">
         <v>0</v>
       </c>
       <c r="W90" t="s">
@@ -9040,7 +9046,7 @@
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91">
@@ -9069,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="J91">
         <v>7000</v>
@@ -9111,7 +9117,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_2.png</v>
       </c>
-      <c r="V91">
+      <c r="V91" s="5">
         <v>0</v>
       </c>
       <c r="W91" t="s">
@@ -9129,7 +9135,7 @@
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
       <c r="B92">
@@ -9158,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="J92">
         <v>750</v>
@@ -9200,7 +9206,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V92">
+      <c r="V92" s="5">
         <v>0</v>
       </c>
       <c r="W92" t="s">
@@ -9218,7 +9224,7 @@
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
       <c r="B93">
@@ -9247,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J93">
         <v>7000</v>
@@ -9289,7 +9295,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_4.png</v>
       </c>
-      <c r="V93">
+      <c r="V93" s="5">
         <v>1</v>
       </c>
       <c r="W93" t="s">
@@ -9307,7 +9313,7 @@
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
       <c r="B94">
@@ -9336,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J94">
         <v>750</v>
@@ -9378,7 +9384,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V94">
+      <c r="V94" s="5">
         <v>1</v>
       </c>
       <c r="W94" t="s">
@@ -9396,7 +9402,7 @@
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
       <c r="B95">
@@ -9425,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J95">
         <v>7000</v>
@@ -9467,7 +9473,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_2.png</v>
       </c>
-      <c r="V95">
+      <c r="V95" s="5">
         <v>1</v>
       </c>
       <c r="W95" t="s">
@@ -9486,7 +9492,7 @@
       <c r="AB95" s="5"/>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
       <c r="B96">
@@ -9515,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J96">
         <v>750</v>
@@ -9557,7 +9563,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_13.png</v>
       </c>
-      <c r="V96">
+      <c r="V96" s="5">
         <v>1</v>
       </c>
       <c r="W96" t="s">
@@ -9575,7 +9581,7 @@
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
       <c r="B97">
@@ -9604,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J97">
         <v>7000</v>
@@ -9646,7 +9652,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V97">
+      <c r="V97" s="5">
         <v>0</v>
       </c>
       <c r="W97" t="s">
@@ -9664,7 +9670,7 @@
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
       <c r="B98">
@@ -9693,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J98">
         <v>7000</v>
@@ -9735,7 +9741,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_4.png</v>
       </c>
-      <c r="V98">
+      <c r="V98" s="5">
         <v>1</v>
       </c>
       <c r="W98" t="s">
@@ -9753,7 +9759,7 @@
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
       <c r="B99">
@@ -9782,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J99">
         <v>750</v>
@@ -9824,7 +9830,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V99">
+      <c r="V99" s="5">
         <v>0</v>
       </c>
       <c r="W99" t="s">
@@ -9842,7 +9848,7 @@
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
       <c r="B100">
@@ -9871,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J100">
         <v>750</v>
@@ -9913,7 +9919,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_13.png</v>
       </c>
-      <c r="V100">
+      <c r="V100" s="5">
         <v>1</v>
       </c>
       <c r="W100" t="s">
@@ -9931,7 +9937,7 @@
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101">
@@ -9960,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J101">
         <v>750</v>
@@ -10002,7 +10008,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V101">
+      <c r="V101" s="5">
         <v>0</v>
       </c>
       <c r="W101" t="s">
@@ -10020,7 +10026,7 @@
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
       <c r="B102">
@@ -10049,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="J102">
         <v>7000</v>
@@ -10091,7 +10097,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_2.png</v>
       </c>
-      <c r="V102">
+      <c r="V102" s="5">
         <v>0</v>
       </c>
       <c r="W102" t="s">
@@ -10109,7 +10115,7 @@
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
       <c r="B103">
@@ -10138,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J103">
         <v>7000</v>
@@ -10180,7 +10186,7 @@
         <f t="shared" si="25"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V103">
+      <c r="V103" s="5">
         <v>1</v>
       </c>
       <c r="W103" t="s">
@@ -10198,7 +10204,7 @@
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
       <c r="B104">
@@ -10227,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J104">
         <v>750</v>
@@ -10269,7 +10275,7 @@
         <f t="shared" ref="U104:U115" si="34">CONCATENATE("images/choice_trial_",Q104,".png")</f>
         <v>images/choice_trial_10.png</v>
       </c>
-      <c r="V104">
+      <c r="V104" s="5">
         <v>1</v>
       </c>
       <c r="W104" t="s">
@@ -10287,7 +10293,7 @@
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
       <c r="B105">
@@ -10316,7 +10322,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J105">
         <v>750</v>
@@ -10358,7 +10364,7 @@
         <f t="shared" si="34"/>
         <v>images/choice_trial_9.png</v>
       </c>
-      <c r="V105">
+      <c r="V105" s="5">
         <v>1</v>
       </c>
       <c r="W105" t="s">
@@ -10376,7 +10382,7 @@
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" s="5">
         <v>105</v>
       </c>
       <c r="B106">
@@ -10405,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J106">
         <v>7000</v>
@@ -10447,7 +10453,7 @@
         <f t="shared" si="34"/>
         <v>images/choice_trial_4.png</v>
       </c>
-      <c r="V106">
+      <c r="V106" s="5">
         <v>1</v>
       </c>
       <c r="W106" t="s">
@@ -10465,7 +10471,7 @@
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" s="5">
         <v>106</v>
       </c>
       <c r="B107">
@@ -10494,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J107">
         <v>750</v>
@@ -10536,7 +10542,7 @@
         <f t="shared" si="34"/>
         <v>images/choice_trial_13.png</v>
       </c>
-      <c r="V107">
+      <c r="V107" s="5">
         <v>0</v>
       </c>
       <c r="W107" t="s">
@@ -10554,7 +10560,7 @@
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="5">
         <v>107</v>
       </c>
       <c r="B108">
@@ -10583,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J108">
         <v>7000</v>
@@ -10625,7 +10631,7 @@
         <f t="shared" si="34"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V108">
+      <c r="V108" s="5">
         <v>1</v>
       </c>
       <c r="W108" t="s">
@@ -10643,78 +10649,78 @@
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" s="5">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="27"/>
-        <v>images/choice_trial_16.png</v>
+        <v>images/choice_trial_9.png</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="28"/>
-        <v>images/choice_trial_2.png</v>
+        <v>images/choice_trial_14.png</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="29"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="30"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109" t="s">
+        <v>57</v>
+      </c>
+      <c r="J109">
+        <v>750</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>18</v>
+      </c>
+      <c r="N109">
+        <v>6</v>
+      </c>
+      <c r="O109">
+        <v>5</v>
+      </c>
+      <c r="P109" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q109" s="4">
         <v>9</v>
-      </c>
-      <c r="J109">
-        <v>7000</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
-        <v>17</v>
-      </c>
-      <c r="N109">
-        <v>3</v>
-      </c>
-      <c r="O109">
-        <v>2</v>
-      </c>
-      <c r="P109" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q109" s="4">
-        <v>2</v>
       </c>
       <c r="R109">
         <f t="shared" si="31"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="S109">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="T109" t="str">
         <f t="shared" si="33"/>
-        <v>images/choice_trial_16.png</v>
+        <v>images/choice_trial_14.png</v>
       </c>
       <c r="U109" t="str">
         <f t="shared" si="34"/>
-        <v>images/choice_trial_2.png</v>
-      </c>
-      <c r="V109">
+        <v>images/choice_trial_9.png</v>
+      </c>
+      <c r="V109" s="5">
         <v>1</v>
       </c>
       <c r="W109" t="s">
@@ -10725,85 +10731,85 @@
         <v>f</v>
       </c>
       <c r="Y109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z109">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" s="5">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="27"/>
-        <v>images/choice_trial_9.png</v>
+        <v>images/choice_trial_16.png</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="28"/>
-        <v>images/choice_trial_14.png</v>
+        <v>images/choice_trial_2.png</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="29"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="30"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J110">
-        <v>750</v>
+        <v>7000</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P110" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q110" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R110">
         <f t="shared" si="31"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S110">
         <f t="shared" si="32"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T110" t="str">
         <f t="shared" si="33"/>
-        <v>images/choice_trial_14.png</v>
+        <v>images/choice_trial_16.png</v>
       </c>
       <c r="U110" t="str">
         <f t="shared" si="34"/>
-        <v>images/choice_trial_9.png</v>
-      </c>
-      <c r="V110">
+        <v>images/choice_trial_2.png</v>
+      </c>
+      <c r="V110" s="5">
         <v>1</v>
       </c>
       <c r="W110" t="s">
@@ -10814,14 +10820,14 @@
         <v>f</v>
       </c>
       <c r="Y110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z110">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="A111" s="5">
         <v>110</v>
       </c>
       <c r="B111">
@@ -10850,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J111">
         <v>750</v>
@@ -10892,7 +10898,7 @@
         <f t="shared" si="34"/>
         <v>images/choice_trial_13.png</v>
       </c>
-      <c r="V111">
+      <c r="V111" s="5">
         <v>1</v>
       </c>
       <c r="W111" t="s">
@@ -10910,7 +10916,7 @@
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" s="5">
         <v>111</v>
       </c>
       <c r="B112">
@@ -10939,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J112">
         <v>7000</v>
@@ -10981,7 +10987,7 @@
         <f t="shared" si="34"/>
         <v>images/choice_trial_15.png</v>
       </c>
-      <c r="V112">
+      <c r="V112" s="5">
         <v>1</v>
       </c>
       <c r="W112" t="s">
@@ -10999,22 +11005,22 @@
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="A113" s="5">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="27"/>
-        <v>images/choice_trial_8.png</v>
+        <v>images/choice_trial_11.png</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="28"/>
-        <v>images/choice_trial_10.png</v>
+        <v>images/choice_trial_4.png</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="29"/>
@@ -11022,19 +11028,19 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="30"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J113">
-        <v>750</v>
+        <v>7000</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -11043,67 +11049,67 @@
         <v>18</v>
       </c>
       <c r="N113">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O113">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P113" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q113" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R113">
         <f t="shared" si="31"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S113">
         <f t="shared" si="32"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T113" t="str">
         <f t="shared" si="33"/>
-        <v>images/choice_trial_8.png</v>
+        <v>images/choice_trial_11.png</v>
       </c>
       <c r="U113" t="str">
         <f t="shared" si="34"/>
-        <v>images/choice_trial_10.png</v>
-      </c>
-      <c r="V113">
-        <v>1</v>
+        <v>images/choice_trial_4.png</v>
+      </c>
+      <c r="V113" s="5">
+        <v>0</v>
       </c>
       <c r="W113" t="s">
         <v>8</v>
       </c>
       <c r="X113" t="str">
         <f t="shared" si="35"/>
-        <v>f</v>
+        <v>j</v>
       </c>
       <c r="Y113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z113">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="A114" s="5">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="27"/>
-        <v>images/choice_trial_11.png</v>
+        <v>images/choice_trial_8.png</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="28"/>
-        <v>images/choice_trial_4.png</v>
+        <v>images/choice_trial_10.png</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="29"/>
@@ -11111,19 +11117,19 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="30"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="J114">
-        <v>7000</v>
+        <v>750</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -11132,52 +11138,52 @@
         <v>18</v>
       </c>
       <c r="N114">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O114">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P114" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q114" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R114">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S114">
         <f t="shared" si="32"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T114" t="str">
         <f t="shared" si="33"/>
-        <v>images/choice_trial_11.png</v>
+        <v>images/choice_trial_8.png</v>
       </c>
       <c r="U114" t="str">
         <f t="shared" si="34"/>
-        <v>images/choice_trial_4.png</v>
-      </c>
-      <c r="V114">
-        <v>0</v>
+        <v>images/choice_trial_10.png</v>
+      </c>
+      <c r="V114" s="5">
+        <v>1</v>
       </c>
       <c r="W114" t="s">
         <v>8</v>
       </c>
       <c r="X114" t="str">
         <f t="shared" si="35"/>
-        <v>j</v>
+        <v>f</v>
       </c>
       <c r="Y114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z114">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="A115" s="5">
         <v>114</v>
       </c>
       <c r="B115">
@@ -11206,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J115">
         <v>7000</v>
@@ -11248,7 +11254,7 @@
         <f t="shared" si="34"/>
         <v>images/choice_trial_2.png</v>
       </c>
-      <c r="V115">
+      <c r="V115" s="5">
         <v>1</v>
       </c>
       <c r="W115" t="s">

--- a/lists/learn_list_study4_c5.xlsx
+++ b/lists/learn_list_study4_c5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gelliott/Documents/projects/delaylearn/feedback-delay-four/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B96DC-5CD5-9C47-B43F-2372050D1F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30D2E1A-146E-0541-93BC-02DD5D205BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="500" windowWidth="43380" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_study4_try_counter1" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="58">
   <si>
     <t>pattern_stimuli</t>
   </si>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:AB115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I115"/>
+      <selection activeCell="H2" sqref="H2:H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1192,8 +1192,8 @@
       <c r="G2" t="s">
         <v>53</v>
       </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>57</v>
       </c>
       <c r="I2" t="s">
         <v>54</v>
@@ -1273,8 +1273,8 @@
       <c r="G3" t="s">
         <v>53</v>
       </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="H3" t="s">
+        <v>57</v>
       </c>
       <c r="I3" t="s">
         <v>54</v>
@@ -1353,8 +1353,8 @@
       <c r="G4" t="s">
         <v>53</v>
       </c>
-      <c r="H4">
-        <v>0</v>
+      <c r="H4" t="s">
+        <v>57</v>
       </c>
       <c r="I4" t="s">
         <v>55</v>
@@ -1434,8 +1434,8 @@
       <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="H5">
-        <v>0</v>
+      <c r="H5" t="s">
+        <v>57</v>
       </c>
       <c r="I5" t="s">
         <v>54</v>
@@ -1515,8 +1515,8 @@
       <c r="G6" t="s">
         <v>53</v>
       </c>
-      <c r="H6">
-        <v>0</v>
+      <c r="H6" t="s">
+        <v>57</v>
       </c>
       <c r="I6" t="s">
         <v>54</v>
@@ -1596,8 +1596,8 @@
       <c r="G7" t="s">
         <v>8</v>
       </c>
-      <c r="H7">
-        <v>0</v>
+      <c r="H7" t="s">
+        <v>57</v>
       </c>
       <c r="I7" t="s">
         <v>54</v>
@@ -1681,8 +1681,8 @@
         <f t="shared" ref="G8:G39" si="3">IF(AND(V8=1,L8=0),"f",IF(AND(V8=1,L8=1),"j",IF(AND(V8=0,L8=0),"j","f")))</f>
         <v>f</v>
       </c>
-      <c r="H8">
-        <v>0</v>
+      <c r="H8" t="s">
+        <v>57</v>
       </c>
       <c r="I8" t="s">
         <v>57</v>
@@ -1770,8 +1770,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="H9" t="s">
+        <v>57</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
@@ -1859,8 +1859,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="H10" t="s">
+        <v>57</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -1948,8 +1948,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H11">
-        <v>0</v>
+      <c r="H11" t="s">
+        <v>57</v>
       </c>
       <c r="I11" t="s">
         <v>57</v>
@@ -2037,8 +2037,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H12">
-        <v>0</v>
+      <c r="H12" t="s">
+        <v>57</v>
       </c>
       <c r="I12" t="s">
         <v>57</v>
@@ -2126,8 +2126,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H13">
-        <v>0</v>
+      <c r="H13" t="s">
+        <v>57</v>
       </c>
       <c r="I13" t="s">
         <v>57</v>
@@ -2215,8 +2215,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="H14">
-        <v>1</v>
+      <c r="H14" t="s">
+        <v>57</v>
       </c>
       <c r="I14" t="s">
         <v>57</v>
@@ -2304,8 +2304,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="H15">
-        <v>0</v>
+      <c r="H15" t="s">
+        <v>57</v>
       </c>
       <c r="I15" t="s">
         <v>57</v>
@@ -2393,8 +2393,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="H16">
-        <v>1</v>
+      <c r="H16" t="s">
+        <v>57</v>
       </c>
       <c r="I16" t="s">
         <v>57</v>
@@ -2482,8 +2482,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H17">
-        <v>0</v>
+      <c r="H17" t="s">
+        <v>57</v>
       </c>
       <c r="I17" t="s">
         <v>57</v>
@@ -2571,8 +2571,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="H18" t="s">
+        <v>57</v>
       </c>
       <c r="I18" t="s">
         <v>57</v>
@@ -2660,8 +2660,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="H19">
-        <v>0</v>
+      <c r="H19" t="s">
+        <v>57</v>
       </c>
       <c r="I19" t="s">
         <v>57</v>
@@ -2749,8 +2749,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H20">
-        <v>0</v>
+      <c r="H20" t="s">
+        <v>57</v>
       </c>
       <c r="I20" t="s">
         <v>57</v>
@@ -2838,8 +2838,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="H21">
-        <v>0</v>
+      <c r="H21" t="s">
+        <v>57</v>
       </c>
       <c r="I21" t="s">
         <v>57</v>
@@ -2927,8 +2927,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H22">
-        <v>0</v>
+      <c r="H22" t="s">
+        <v>57</v>
       </c>
       <c r="I22" t="s">
         <v>57</v>
@@ -3016,8 +3016,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="H23">
-        <v>1</v>
+      <c r="H23" t="s">
+        <v>57</v>
       </c>
       <c r="I23" t="s">
         <v>57</v>
@@ -3105,8 +3105,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H24">
-        <v>0</v>
+      <c r="H24" t="s">
+        <v>57</v>
       </c>
       <c r="I24" t="s">
         <v>57</v>
@@ -3194,8 +3194,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="H25" t="s">
+        <v>57</v>
       </c>
       <c r="I25" t="s">
         <v>57</v>
@@ -3283,8 +3283,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H26">
-        <v>0</v>
+      <c r="H26" t="s">
+        <v>57</v>
       </c>
       <c r="I26" t="s">
         <v>57</v>
@@ -3372,8 +3372,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="H27">
-        <v>0</v>
+      <c r="H27" t="s">
+        <v>57</v>
       </c>
       <c r="I27" t="s">
         <v>57</v>
@@ -3461,8 +3461,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="H28">
-        <v>1</v>
+      <c r="H28" t="s">
+        <v>57</v>
       </c>
       <c r="I28" t="s">
         <v>57</v>
@@ -3550,8 +3550,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H29">
-        <v>0</v>
+      <c r="H29" t="s">
+        <v>57</v>
       </c>
       <c r="I29" t="s">
         <v>57</v>
@@ -3639,8 +3639,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H30">
-        <v>0</v>
+      <c r="H30" t="s">
+        <v>57</v>
       </c>
       <c r="I30" t="s">
         <v>57</v>
@@ -3728,8 +3728,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="H31" t="s">
+        <v>57</v>
       </c>
       <c r="I31" t="s">
         <v>57</v>
@@ -3817,8 +3817,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H32">
-        <v>0</v>
+      <c r="H32" t="s">
+        <v>57</v>
       </c>
       <c r="I32" t="s">
         <v>57</v>
@@ -3906,8 +3906,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="H33">
-        <v>0</v>
+      <c r="H33" t="s">
+        <v>57</v>
       </c>
       <c r="I33" t="s">
         <v>57</v>
@@ -3995,8 +3995,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H34">
-        <v>0</v>
+      <c r="H34" t="s">
+        <v>57</v>
       </c>
       <c r="I34" t="s">
         <v>57</v>
@@ -4084,8 +4084,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H35">
-        <v>0</v>
+      <c r="H35" t="s">
+        <v>57</v>
       </c>
       <c r="I35" t="s">
         <v>57</v>
@@ -4173,8 +4173,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="H36">
-        <v>1</v>
+      <c r="H36" t="s">
+        <v>57</v>
       </c>
       <c r="I36" t="s">
         <v>57</v>
@@ -4262,8 +4262,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="H37">
-        <v>1</v>
+      <c r="H37" t="s">
+        <v>57</v>
       </c>
       <c r="I37" t="s">
         <v>57</v>
@@ -4351,8 +4351,8 @@
         <f t="shared" si="3"/>
         <v>f</v>
       </c>
-      <c r="H38">
-        <v>0</v>
+      <c r="H38" t="s">
+        <v>57</v>
       </c>
       <c r="I38" t="s">
         <v>57</v>
@@ -4440,8 +4440,8 @@
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="H39">
-        <v>1</v>
+      <c r="H39" t="s">
+        <v>57</v>
       </c>
       <c r="I39" t="s">
         <v>57</v>
@@ -4529,8 +4529,8 @@
         <f t="shared" ref="G40:G71" si="12">IF(AND(V40=1,L40=0),"f",IF(AND(V40=1,L40=1),"j",IF(AND(V40=0,L40=0),"j","f")))</f>
         <v>j</v>
       </c>
-      <c r="H40">
-        <v>0</v>
+      <c r="H40" t="s">
+        <v>57</v>
       </c>
       <c r="I40" t="s">
         <v>57</v>
@@ -4618,8 +4618,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H41">
-        <v>0</v>
+      <c r="H41" t="s">
+        <v>57</v>
       </c>
       <c r="I41" t="s">
         <v>57</v>
@@ -4707,8 +4707,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H42">
-        <v>0</v>
+      <c r="H42" t="s">
+        <v>57</v>
       </c>
       <c r="I42" t="s">
         <v>57</v>
@@ -4796,8 +4796,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H43">
-        <v>1</v>
+      <c r="H43" t="s">
+        <v>57</v>
       </c>
       <c r="I43" t="s">
         <v>57</v>
@@ -4885,8 +4885,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H44">
-        <v>0</v>
+      <c r="H44" t="s">
+        <v>57</v>
       </c>
       <c r="I44" t="s">
         <v>57</v>
@@ -4974,8 +4974,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H45">
-        <v>1</v>
+      <c r="H45" t="s">
+        <v>57</v>
       </c>
       <c r="I45" t="s">
         <v>57</v>
@@ -5063,8 +5063,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H46">
-        <v>0</v>
+      <c r="H46" t="s">
+        <v>57</v>
       </c>
       <c r="I46" t="s">
         <v>57</v>
@@ -5152,8 +5152,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H47">
-        <v>0</v>
+      <c r="H47" t="s">
+        <v>57</v>
       </c>
       <c r="I47" t="s">
         <v>57</v>
@@ -5241,8 +5241,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H48">
-        <v>1</v>
+      <c r="H48" t="s">
+        <v>57</v>
       </c>
       <c r="I48" t="s">
         <v>57</v>
@@ -5330,8 +5330,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H49">
-        <v>0</v>
+      <c r="H49" t="s">
+        <v>57</v>
       </c>
       <c r="I49" t="s">
         <v>57</v>
@@ -5419,8 +5419,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H50">
-        <v>0</v>
+      <c r="H50" t="s">
+        <v>57</v>
       </c>
       <c r="I50" t="s">
         <v>57</v>
@@ -5508,8 +5508,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" t="s">
+        <v>57</v>
       </c>
       <c r="I51" t="s">
         <v>57</v>
@@ -5597,8 +5597,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H52">
-        <v>0</v>
+      <c r="H52" t="s">
+        <v>57</v>
       </c>
       <c r="I52" t="s">
         <v>57</v>
@@ -5686,8 +5686,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="H53" t="s">
+        <v>57</v>
       </c>
       <c r="I53" t="s">
         <v>57</v>
@@ -5775,8 +5775,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H54">
-        <v>1</v>
+      <c r="H54" t="s">
+        <v>57</v>
       </c>
       <c r="I54" t="s">
         <v>57</v>
@@ -5864,8 +5864,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H55">
-        <v>0</v>
+      <c r="H55" t="s">
+        <v>57</v>
       </c>
       <c r="I55" t="s">
         <v>57</v>
@@ -5953,8 +5953,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H56">
-        <v>0</v>
+      <c r="H56" t="s">
+        <v>57</v>
       </c>
       <c r="I56" t="s">
         <v>57</v>
@@ -6042,8 +6042,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H57">
-        <v>0</v>
+      <c r="H57" t="s">
+        <v>57</v>
       </c>
       <c r="I57" t="s">
         <v>57</v>
@@ -6131,8 +6131,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H58">
-        <v>0</v>
+      <c r="H58" t="s">
+        <v>57</v>
       </c>
       <c r="I58" t="s">
         <v>57</v>
@@ -6220,8 +6220,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H59">
-        <v>0</v>
+      <c r="H59" t="s">
+        <v>57</v>
       </c>
       <c r="I59" t="s">
         <v>57</v>
@@ -6309,8 +6309,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H60">
-        <v>1</v>
+      <c r="H60" t="s">
+        <v>57</v>
       </c>
       <c r="I60" t="s">
         <v>57</v>
@@ -6398,8 +6398,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H61">
-        <v>0</v>
+      <c r="H61" t="s">
+        <v>57</v>
       </c>
       <c r="I61" t="s">
         <v>57</v>
@@ -6487,8 +6487,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H62">
-        <v>0</v>
+      <c r="H62" t="s">
+        <v>57</v>
       </c>
       <c r="I62" t="s">
         <v>57</v>
@@ -6576,8 +6576,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H63">
-        <v>1</v>
+      <c r="H63" t="s">
+        <v>57</v>
       </c>
       <c r="I63" t="s">
         <v>57</v>
@@ -6665,8 +6665,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H64">
-        <v>0</v>
+      <c r="H64" t="s">
+        <v>57</v>
       </c>
       <c r="I64" t="s">
         <v>57</v>
@@ -6754,8 +6754,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H65">
-        <v>0</v>
+      <c r="H65" t="s">
+        <v>57</v>
       </c>
       <c r="I65" t="s">
         <v>57</v>
@@ -6843,8 +6843,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H66">
-        <v>0</v>
+      <c r="H66" t="s">
+        <v>57</v>
       </c>
       <c r="I66" t="s">
         <v>57</v>
@@ -6932,8 +6932,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H67">
-        <v>0</v>
+      <c r="H67" t="s">
+        <v>57</v>
       </c>
       <c r="I67" t="s">
         <v>57</v>
@@ -7021,8 +7021,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H68">
-        <v>0</v>
+      <c r="H68" t="s">
+        <v>57</v>
       </c>
       <c r="I68" t="s">
         <v>57</v>
@@ -7110,8 +7110,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H69">
-        <v>0</v>
+      <c r="H69" t="s">
+        <v>57</v>
       </c>
       <c r="I69" t="s">
         <v>57</v>
@@ -7199,8 +7199,8 @@
         <f t="shared" si="12"/>
         <v>j</v>
       </c>
-      <c r="H70">
-        <v>0</v>
+      <c r="H70" t="s">
+        <v>57</v>
       </c>
       <c r="I70" t="s">
         <v>57</v>
@@ -7289,8 +7289,8 @@
         <f t="shared" si="12"/>
         <v>f</v>
       </c>
-      <c r="H71">
-        <v>0</v>
+      <c r="H71" t="s">
+        <v>57</v>
       </c>
       <c r="I71" t="s">
         <v>57</v>
@@ -7378,8 +7378,8 @@
         <f t="shared" ref="G72:G103" si="21">IF(AND(V72=1,L72=0),"f",IF(AND(V72=1,L72=1),"j",IF(AND(V72=0,L72=0),"j","f")))</f>
         <v>j</v>
       </c>
-      <c r="H72">
-        <v>1</v>
+      <c r="H72" t="s">
+        <v>57</v>
       </c>
       <c r="I72" t="s">
         <v>57</v>
@@ -7467,8 +7467,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H73">
-        <v>0</v>
+      <c r="H73" t="s">
+        <v>57</v>
       </c>
       <c r="I73" t="s">
         <v>57</v>
@@ -7556,8 +7556,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H74">
-        <v>1</v>
+      <c r="H74" t="s">
+        <v>57</v>
       </c>
       <c r="I74" t="s">
         <v>57</v>
@@ -7645,8 +7645,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H75">
-        <v>0</v>
+      <c r="H75" t="s">
+        <v>57</v>
       </c>
       <c r="I75" t="s">
         <v>57</v>
@@ -7734,8 +7734,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H76">
-        <v>0</v>
+      <c r="H76" t="s">
+        <v>57</v>
       </c>
       <c r="I76" t="s">
         <v>57</v>
@@ -7823,8 +7823,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H77">
-        <v>0</v>
+      <c r="H77" t="s">
+        <v>57</v>
       </c>
       <c r="I77" t="s">
         <v>57</v>
@@ -7913,8 +7913,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H78">
-        <v>1</v>
+      <c r="H78" t="s">
+        <v>57</v>
       </c>
       <c r="I78" t="s">
         <v>57</v>
@@ -8002,8 +8002,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H79">
-        <v>1</v>
+      <c r="H79" t="s">
+        <v>57</v>
       </c>
       <c r="I79" t="s">
         <v>57</v>
@@ -8091,8 +8091,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H80">
-        <v>0</v>
+      <c r="H80" t="s">
+        <v>57</v>
       </c>
       <c r="I80" t="s">
         <v>57</v>
@@ -8180,8 +8180,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H81">
-        <v>0</v>
+      <c r="H81" t="s">
+        <v>57</v>
       </c>
       <c r="I81" t="s">
         <v>57</v>
@@ -8269,8 +8269,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H82">
-        <v>0</v>
+      <c r="H82" t="s">
+        <v>57</v>
       </c>
       <c r="I82" t="s">
         <v>57</v>
@@ -8358,8 +8358,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H83">
-        <v>0</v>
+      <c r="H83" t="s">
+        <v>57</v>
       </c>
       <c r="I83" t="s">
         <v>57</v>
@@ -8447,8 +8447,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H84">
-        <v>0</v>
+      <c r="H84" t="s">
+        <v>57</v>
       </c>
       <c r="I84" t="s">
         <v>57</v>
@@ -8536,8 +8536,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H85">
-        <v>0</v>
+      <c r="H85" t="s">
+        <v>57</v>
       </c>
       <c r="I85" t="s">
         <v>57</v>
@@ -8625,8 +8625,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H86">
-        <v>0</v>
+      <c r="H86" t="s">
+        <v>57</v>
       </c>
       <c r="I86" t="s">
         <v>57</v>
@@ -8714,8 +8714,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H87">
-        <v>0</v>
+      <c r="H87" t="s">
+        <v>57</v>
       </c>
       <c r="I87" t="s">
         <v>57</v>
@@ -8803,8 +8803,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H88">
-        <v>0</v>
+      <c r="H88" t="s">
+        <v>57</v>
       </c>
       <c r="I88" t="s">
         <v>57</v>
@@ -8893,8 +8893,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H89">
-        <v>0</v>
+      <c r="H89" t="s">
+        <v>57</v>
       </c>
       <c r="I89" t="s">
         <v>57</v>
@@ -8982,8 +8982,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H90">
-        <v>1</v>
+      <c r="H90" t="s">
+        <v>57</v>
       </c>
       <c r="I90" t="s">
         <v>57</v>
@@ -9071,8 +9071,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H91">
-        <v>1</v>
+      <c r="H91" t="s">
+        <v>57</v>
       </c>
       <c r="I91" t="s">
         <v>57</v>
@@ -9160,8 +9160,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H92">
-        <v>1</v>
+      <c r="H92" t="s">
+        <v>57</v>
       </c>
       <c r="I92" t="s">
         <v>57</v>
@@ -9249,8 +9249,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H93">
-        <v>0</v>
+      <c r="H93" t="s">
+        <v>57</v>
       </c>
       <c r="I93" t="s">
         <v>57</v>
@@ -9338,8 +9338,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H94">
-        <v>0</v>
+      <c r="H94" t="s">
+        <v>57</v>
       </c>
       <c r="I94" t="s">
         <v>57</v>
@@ -9427,8 +9427,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H95">
-        <v>0</v>
+      <c r="H95" t="s">
+        <v>57</v>
       </c>
       <c r="I95" t="s">
         <v>57</v>
@@ -9517,8 +9517,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H96">
-        <v>0</v>
+      <c r="H96" t="s">
+        <v>57</v>
       </c>
       <c r="I96" t="s">
         <v>57</v>
@@ -9606,8 +9606,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H97">
-        <v>1</v>
+      <c r="H97" t="s">
+        <v>57</v>
       </c>
       <c r="I97" t="s">
         <v>57</v>
@@ -9695,8 +9695,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H98">
-        <v>0</v>
+      <c r="H98" t="s">
+        <v>57</v>
       </c>
       <c r="I98" t="s">
         <v>57</v>
@@ -9784,8 +9784,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H99">
-        <v>0</v>
+      <c r="H99" t="s">
+        <v>57</v>
       </c>
       <c r="I99" t="s">
         <v>57</v>
@@ -9873,8 +9873,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H100">
-        <v>0</v>
+      <c r="H100" t="s">
+        <v>57</v>
       </c>
       <c r="I100" t="s">
         <v>57</v>
@@ -9962,8 +9962,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H101">
-        <v>0</v>
+      <c r="H101" t="s">
+        <v>57</v>
       </c>
       <c r="I101" t="s">
         <v>57</v>
@@ -10051,8 +10051,8 @@
         <f t="shared" si="21"/>
         <v>j</v>
       </c>
-      <c r="H102">
-        <v>1</v>
+      <c r="H102" t="s">
+        <v>57</v>
       </c>
       <c r="I102" t="s">
         <v>57</v>
@@ -10140,8 +10140,8 @@
         <f t="shared" si="21"/>
         <v>f</v>
       </c>
-      <c r="H103">
-        <v>0</v>
+      <c r="H103" t="s">
+        <v>57</v>
       </c>
       <c r="I103" t="s">
         <v>57</v>
@@ -10229,8 +10229,8 @@
         <f t="shared" ref="G104:G115" si="30">IF(AND(V104=1,L104=0),"f",IF(AND(V104=1,L104=1),"j",IF(AND(V104=0,L104=0),"j","f")))</f>
         <v>j</v>
       </c>
-      <c r="H104">
-        <v>1</v>
+      <c r="H104" t="s">
+        <v>57</v>
       </c>
       <c r="I104" t="s">
         <v>57</v>
@@ -10260,7 +10260,7 @@
         <v>10</v>
       </c>
       <c r="R104">
-        <f t="shared" ref="R104:R135" si="31">IF(L104=0,P104,Q104)</f>
+        <f t="shared" ref="R104:R115" si="31">IF(L104=0,P104,Q104)</f>
         <v>10</v>
       </c>
       <c r="S104">
@@ -10318,8 +10318,8 @@
         <f t="shared" si="30"/>
         <v>f</v>
       </c>
-      <c r="H105">
-        <v>0</v>
+      <c r="H105" t="s">
+        <v>57</v>
       </c>
       <c r="I105" t="s">
         <v>57</v>
@@ -10407,8 +10407,8 @@
         <f t="shared" si="30"/>
         <v>j</v>
       </c>
-      <c r="H106">
-        <v>0</v>
+      <c r="H106" t="s">
+        <v>57</v>
       </c>
       <c r="I106" t="s">
         <v>57</v>
@@ -10496,8 +10496,8 @@
         <f t="shared" si="30"/>
         <v>j</v>
       </c>
-      <c r="H107">
-        <v>0</v>
+      <c r="H107" t="s">
+        <v>57</v>
       </c>
       <c r="I107" t="s">
         <v>57</v>
@@ -10585,8 +10585,8 @@
         <f t="shared" si="30"/>
         <v>j</v>
       </c>
-      <c r="H108">
-        <v>0</v>
+      <c r="H108" t="s">
+        <v>57</v>
       </c>
       <c r="I108" t="s">
         <v>57</v>
@@ -10674,8 +10674,8 @@
         <f t="shared" si="30"/>
         <v>j</v>
       </c>
-      <c r="H109">
-        <v>0</v>
+      <c r="H109" t="s">
+        <v>57</v>
       </c>
       <c r="I109" t="s">
         <v>57</v>
@@ -10763,8 +10763,8 @@
         <f t="shared" si="30"/>
         <v>f</v>
       </c>
-      <c r="H110">
-        <v>0</v>
+      <c r="H110" t="s">
+        <v>57</v>
       </c>
       <c r="I110" t="s">
         <v>57</v>
@@ -10852,8 +10852,8 @@
         <f t="shared" si="30"/>
         <v>j</v>
       </c>
-      <c r="H111">
-        <v>0</v>
+      <c r="H111" t="s">
+        <v>57</v>
       </c>
       <c r="I111" t="s">
         <v>57</v>
@@ -10941,8 +10941,8 @@
         <f t="shared" si="30"/>
         <v>j</v>
       </c>
-      <c r="H112">
-        <v>0</v>
+      <c r="H112" t="s">
+        <v>57</v>
       </c>
       <c r="I112" t="s">
         <v>57</v>
@@ -11030,8 +11030,8 @@
         <f t="shared" si="30"/>
         <v>j</v>
       </c>
-      <c r="H113">
-        <v>1</v>
+      <c r="H113" t="s">
+        <v>57</v>
       </c>
       <c r="I113" t="s">
         <v>57</v>
@@ -11119,8 +11119,8 @@
         <f t="shared" si="30"/>
         <v>f</v>
       </c>
-      <c r="H114">
-        <v>0</v>
+      <c r="H114" t="s">
+        <v>57</v>
       </c>
       <c r="I114" t="s">
         <v>57</v>
@@ -11208,8 +11208,8 @@
         <f t="shared" si="30"/>
         <v>j</v>
       </c>
-      <c r="H115">
-        <v>0</v>
+      <c r="H115" t="s">
+        <v>57</v>
       </c>
       <c r="I115" t="s">
         <v>57</v>
